--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\4 ano\Orientada a obeto\ProjetoSemestral\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55098469-5F36-43A1-9457-7CF9D39E8D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A776744F-BCD0-4F7E-A2E6-410D92928D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C03263EB-8750-4946-8F22-03F56D2BE8A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{C03263EB-8750-4946-8F22-03F56D2BE8A1}"/>
   </bookViews>
   <sheets>
     <sheet name="pulsos_ms" sheetId="1" r:id="rId1"/>
     <sheet name="RPM" sheetId="2" r:id="rId2"/>
+    <sheet name="pulsos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Time</t>
   </si>
@@ -77,12 +78,33 @@
   <si>
     <t>RPM255</t>
   </si>
+  <si>
+    <t>pulsos50</t>
+  </si>
+  <si>
+    <t>pulsos100</t>
+  </si>
+  <si>
+    <t>pulsos150</t>
+  </si>
+  <si>
+    <t>pulsos200</t>
+  </si>
+  <si>
+    <t>pulsos250</t>
+  </si>
+  <si>
+    <t>pulsos255</t>
+  </si>
+  <si>
+    <t>Aux255</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,16 +118,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,17 +149,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -214,9 +314,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>50</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1467,9 +1564,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>100</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -2720,9 +2814,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>150</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -3973,9 +4064,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>200</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -5226,9 +5314,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:v>250</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -6479,9 +6564,6 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:v>255</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -15760,6 +15842,1525 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>pulsos!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>pulsos!$G$2:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1184</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1287</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1382</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1487</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1594</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1703</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1802</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1913</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2139</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2242</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2356</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2472</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2587</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2704</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2821</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2939</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3046</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3164</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3284</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3403</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3512</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3632</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3752</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3873</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3983</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4103</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4347</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4457</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4578</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4822</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4933</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5056</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5179</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5301</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5412</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5535</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5658</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5781</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5904</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6027</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6149</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6261</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6383</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6507</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6630</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6743</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6867</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6990</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7113</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7225</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7348</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7472</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7595</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7708</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7831</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7955</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8079</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8190</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8313</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8437</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8561</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8674</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8798</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8922</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9045</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9157</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9281</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9405</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9529</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9653</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9776</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10013</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>10137</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10261</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10385</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10497</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10621</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10745</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81E9-4AB2-8BE0-EF915EA97250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>pulsos!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>pulsos!$H$2:$H$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>364.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>485.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>606.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>728.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>849.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>970.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1092.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1213.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1334.74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1456.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1577.42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1698.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1820.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1941.44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2062.7800000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2184.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2305.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2426.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2548.14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2669.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2790.82</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2912.16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3033.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3154.84</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3276.18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3397.52</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3518.86</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3640.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3761.54</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3882.88</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4004.22</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4125.5600000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4246.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4368.24</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4489.58</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4610.92</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4732.26</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4853.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4974.9399999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5096.28</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5217.62</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5338.96</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5460.3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5581.64</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5702.98</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5824.32</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5945.66</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6067</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6188.34</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6309.68</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6431.02</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6552.36</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6673.7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6795.04</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6916.38</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7037.72</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7159.06</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7280.4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7401.74</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7523.08</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7644.42</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7765.76</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7887.1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8008.44</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8129.78</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8251.1200000000008</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8372.4599999999991</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8493.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8615.14</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8736.48</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8857.82</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8979.16</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9100.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9221.84</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9343.18</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9464.52</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9585.86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9707.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9828.5400000000009</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9949.8799999999992</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10071.219999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10192.56</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10313.9</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10435.24</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10556.58</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10677.92</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10799.26</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10920.6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>11041.94</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11163.28</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>11284.62</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>11405.96</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11527.3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>11648.64</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>11769.98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>11891.32</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>12012.66</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>12134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-81E9-4AB2-8BE0-EF915EA97250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1292607744"/>
+        <c:axId val="1283371936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1292607744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1283371936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1283371936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1292607744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15801,6 +17402,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -16872,6 +18513,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -16954,6 +19111,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE484F2-4CFB-B748-C8EF-9EF6C923CD72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B05EC89-A47A-40A9-A9F0-610CEF4E6A08}" name="Tabela1" displayName="Tabela1" ref="A1:G201" totalsRowShown="0">
   <autoFilter ref="A1:G201" xr:uid="{5B05EC89-A47A-40A9-A9F0-610CEF4E6A08}"/>
@@ -16998,6 +19196,25 @@
     </tableColumn>
     <tableColumn id="13" xr3:uid="{BC03420D-5E5E-4DE5-BA24-BD6629DA3BED}" name="RPM255">
       <calculatedColumnFormula>G2*60000/1200</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EAB767B7-E33C-49B2-9EC9-996084EB96CB}" name="Tabela3" displayName="Tabela3" ref="A1:H201" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:H201" xr:uid="{EAB767B7-E33C-49B2-9EC9-996084EB96CB}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{5C959E61-AB68-4959-B7CF-A8A652DB5DD8}" name="Time"/>
+    <tableColumn id="2" xr3:uid="{E5766346-4462-47BF-AA49-3775E38157AC}" name="pulsos50"/>
+    <tableColumn id="3" xr3:uid="{BCCAAB93-D5E3-4ED3-A079-C276ADC57572}" name="pulsos100"/>
+    <tableColumn id="4" xr3:uid="{E0BE27C1-5545-4DB9-B1BF-291972B1608E}" name="pulsos150"/>
+    <tableColumn id="5" xr3:uid="{663F9A85-5DB7-40D1-89AA-683AC792F29C}" name="pulsos200"/>
+    <tableColumn id="6" xr3:uid="{0B2729A6-3F64-44DD-A0FA-54ADD2E31355}" name="pulsos250"/>
+    <tableColumn id="7" xr3:uid="{0A8A64B3-15FB-40F3-BD7F-F52BAFFCB43C}" name="pulsos255"/>
+    <tableColumn id="8" xr3:uid="{00369C18-DF41-44D0-A969-20A57AE790F1}" name="Aux255" dataDxfId="0">
+      <calculatedColumnFormula>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17304,7 +19521,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G201"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21945,7 +24162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41FC32B-74C8-4739-A5D9-B255AE0B68EE}">
   <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -31404,4 +33621,5454 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFCFF2E-3E9E-4523-9568-A75F41B9794E}">
+  <dimension ref="A1:H201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="7" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>121.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>242.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>43</v>
+      </c>
+      <c r="G5">
+        <v>55</v>
+      </c>
+      <c r="H5">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>364.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>51</v>
+      </c>
+      <c r="E6">
+        <v>63</v>
+      </c>
+      <c r="F6">
+        <v>74</v>
+      </c>
+      <c r="G6">
+        <v>91</v>
+      </c>
+      <c r="H6">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>485.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>75</v>
+      </c>
+      <c r="E7">
+        <v>97</v>
+      </c>
+      <c r="F7">
+        <v>114</v>
+      </c>
+      <c r="G7">
+        <v>138</v>
+      </c>
+      <c r="H7">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>606.70000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>106</v>
+      </c>
+      <c r="E8">
+        <v>138</v>
+      </c>
+      <c r="F8">
+        <v>163</v>
+      </c>
+      <c r="G8">
+        <v>194</v>
+      </c>
+      <c r="H8">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>728.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>85</v>
+      </c>
+      <c r="D9">
+        <v>140</v>
+      </c>
+      <c r="E9">
+        <v>179</v>
+      </c>
+      <c r="F9">
+        <v>213</v>
+      </c>
+      <c r="G9">
+        <v>255</v>
+      </c>
+      <c r="H9">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>849.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>107</v>
+      </c>
+      <c r="D10">
+        <v>178</v>
+      </c>
+      <c r="E10">
+        <v>230</v>
+      </c>
+      <c r="F10">
+        <v>274</v>
+      </c>
+      <c r="G10">
+        <v>316</v>
+      </c>
+      <c r="H10">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>970.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>131</v>
+      </c>
+      <c r="D11">
+        <v>214</v>
+      </c>
+      <c r="E11">
+        <v>284</v>
+      </c>
+      <c r="F11">
+        <v>341</v>
+      </c>
+      <c r="G11">
+        <v>390</v>
+      </c>
+      <c r="H11">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>1092.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>156</v>
+      </c>
+      <c r="D12">
+        <v>257</v>
+      </c>
+      <c r="E12">
+        <v>343</v>
+      </c>
+      <c r="F12">
+        <v>413</v>
+      </c>
+      <c r="G12">
+        <v>466</v>
+      </c>
+      <c r="H12">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>1213.4000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <v>62</v>
+      </c>
+      <c r="C13">
+        <v>180</v>
+      </c>
+      <c r="D13">
+        <v>303</v>
+      </c>
+      <c r="E13">
+        <v>399</v>
+      </c>
+      <c r="F13">
+        <v>482</v>
+      </c>
+      <c r="G13">
+        <v>548</v>
+      </c>
+      <c r="H13">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>1334.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>72</v>
+      </c>
+      <c r="C14">
+        <v>208</v>
+      </c>
+      <c r="D14">
+        <v>350</v>
+      </c>
+      <c r="E14">
+        <v>463</v>
+      </c>
+      <c r="F14">
+        <v>562</v>
+      </c>
+      <c r="G14">
+        <v>625</v>
+      </c>
+      <c r="H14">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>1456.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <v>82</v>
+      </c>
+      <c r="C15">
+        <v>237</v>
+      </c>
+      <c r="D15">
+        <v>394</v>
+      </c>
+      <c r="E15">
+        <v>531</v>
+      </c>
+      <c r="F15">
+        <v>645</v>
+      </c>
+      <c r="G15">
+        <v>714</v>
+      </c>
+      <c r="H15">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>1577.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <v>93</v>
+      </c>
+      <c r="C16">
+        <v>267</v>
+      </c>
+      <c r="D16">
+        <v>446</v>
+      </c>
+      <c r="E16">
+        <v>600</v>
+      </c>
+      <c r="F16">
+        <v>732</v>
+      </c>
+      <c r="G16">
+        <v>804</v>
+      </c>
+      <c r="H16">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>1698.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <v>104</v>
+      </c>
+      <c r="C17">
+        <v>295</v>
+      </c>
+      <c r="D17">
+        <v>498</v>
+      </c>
+      <c r="E17">
+        <v>666</v>
+      </c>
+      <c r="F17">
+        <v>814</v>
+      </c>
+      <c r="G17">
+        <v>898</v>
+      </c>
+      <c r="H17">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>1820.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>160</v>
+      </c>
+      <c r="B18">
+        <v>116</v>
+      </c>
+      <c r="C18">
+        <v>328</v>
+      </c>
+      <c r="D18">
+        <v>553</v>
+      </c>
+      <c r="E18">
+        <v>739</v>
+      </c>
+      <c r="F18">
+        <v>907</v>
+      </c>
+      <c r="G18">
+        <v>986</v>
+      </c>
+      <c r="H18">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>1941.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>170</v>
+      </c>
+      <c r="B19">
+        <v>129</v>
+      </c>
+      <c r="C19">
+        <v>361</v>
+      </c>
+      <c r="D19">
+        <v>603</v>
+      </c>
+      <c r="E19">
+        <v>814</v>
+      </c>
+      <c r="F19">
+        <v>1001</v>
+      </c>
+      <c r="G19">
+        <v>1084</v>
+      </c>
+      <c r="H19">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>2062.7800000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>180</v>
+      </c>
+      <c r="B20">
+        <v>140</v>
+      </c>
+      <c r="C20">
+        <v>395</v>
+      </c>
+      <c r="D20">
+        <v>661</v>
+      </c>
+      <c r="E20">
+        <v>891</v>
+      </c>
+      <c r="F20">
+        <v>1098</v>
+      </c>
+      <c r="G20">
+        <v>1184</v>
+      </c>
+      <c r="H20">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>2184.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>190</v>
+      </c>
+      <c r="B21">
+        <v>153</v>
+      </c>
+      <c r="C21">
+        <v>426</v>
+      </c>
+      <c r="D21">
+        <v>720</v>
+      </c>
+      <c r="E21">
+        <v>969</v>
+      </c>
+      <c r="F21">
+        <v>1188</v>
+      </c>
+      <c r="G21">
+        <v>1287</v>
+      </c>
+      <c r="H21">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>2305.46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>200</v>
+      </c>
+      <c r="B22">
+        <v>166</v>
+      </c>
+      <c r="C22">
+        <v>461</v>
+      </c>
+      <c r="D22">
+        <v>779</v>
+      </c>
+      <c r="E22">
+        <v>1049</v>
+      </c>
+      <c r="F22">
+        <v>1288</v>
+      </c>
+      <c r="G22">
+        <v>1382</v>
+      </c>
+      <c r="H22">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>2426.8000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>210</v>
+      </c>
+      <c r="B23">
+        <v>179</v>
+      </c>
+      <c r="C23">
+        <v>498</v>
+      </c>
+      <c r="D23">
+        <v>834</v>
+      </c>
+      <c r="E23">
+        <v>1130</v>
+      </c>
+      <c r="F23">
+        <v>1390</v>
+      </c>
+      <c r="G23">
+        <v>1487</v>
+      </c>
+      <c r="H23">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>2548.14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>220</v>
+      </c>
+      <c r="B24">
+        <v>192</v>
+      </c>
+      <c r="C24">
+        <v>532</v>
+      </c>
+      <c r="D24">
+        <v>898</v>
+      </c>
+      <c r="E24">
+        <v>1204</v>
+      </c>
+      <c r="F24">
+        <v>1493</v>
+      </c>
+      <c r="G24">
+        <v>1594</v>
+      </c>
+      <c r="H24">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>2669.48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>230</v>
+      </c>
+      <c r="B25">
+        <v>206</v>
+      </c>
+      <c r="C25">
+        <v>569</v>
+      </c>
+      <c r="D25">
+        <v>960</v>
+      </c>
+      <c r="E25">
+        <v>1288</v>
+      </c>
+      <c r="F25">
+        <v>1589</v>
+      </c>
+      <c r="G25">
+        <v>1703</v>
+      </c>
+      <c r="H25">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>2790.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>240</v>
+      </c>
+      <c r="B26">
+        <v>220</v>
+      </c>
+      <c r="C26">
+        <v>607</v>
+      </c>
+      <c r="D26">
+        <v>1024</v>
+      </c>
+      <c r="E26">
+        <v>1372</v>
+      </c>
+      <c r="F26">
+        <v>1695</v>
+      </c>
+      <c r="G26">
+        <v>1802</v>
+      </c>
+      <c r="H26">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>2912.16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>250</v>
+      </c>
+      <c r="B27">
+        <v>235</v>
+      </c>
+      <c r="C27">
+        <v>646</v>
+      </c>
+      <c r="D27">
+        <v>1090</v>
+      </c>
+      <c r="E27">
+        <v>1456</v>
+      </c>
+      <c r="F27">
+        <v>1803</v>
+      </c>
+      <c r="G27">
+        <v>1913</v>
+      </c>
+      <c r="H27">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>3033.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>260</v>
+      </c>
+      <c r="B28">
+        <v>249</v>
+      </c>
+      <c r="C28">
+        <v>682</v>
+      </c>
+      <c r="D28">
+        <v>1158</v>
+      </c>
+      <c r="E28">
+        <v>1535</v>
+      </c>
+      <c r="F28">
+        <v>1911</v>
+      </c>
+      <c r="G28">
+        <v>2025</v>
+      </c>
+      <c r="H28">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>3154.84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>270</v>
+      </c>
+      <c r="B29">
+        <v>264</v>
+      </c>
+      <c r="C29">
+        <v>721</v>
+      </c>
+      <c r="D29">
+        <v>1226</v>
+      </c>
+      <c r="E29">
+        <v>1622</v>
+      </c>
+      <c r="F29">
+        <v>2010</v>
+      </c>
+      <c r="G29">
+        <v>2139</v>
+      </c>
+      <c r="H29">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>3276.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>280</v>
+      </c>
+      <c r="B30">
+        <v>279</v>
+      </c>
+      <c r="C30">
+        <v>762</v>
+      </c>
+      <c r="D30">
+        <v>1287</v>
+      </c>
+      <c r="E30">
+        <v>1709</v>
+      </c>
+      <c r="F30">
+        <v>2120</v>
+      </c>
+      <c r="G30">
+        <v>2242</v>
+      </c>
+      <c r="H30">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>3397.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>290</v>
+      </c>
+      <c r="B31">
+        <v>294</v>
+      </c>
+      <c r="C31">
+        <v>802</v>
+      </c>
+      <c r="D31">
+        <v>1356</v>
+      </c>
+      <c r="E31">
+        <v>1798</v>
+      </c>
+      <c r="F31">
+        <v>2232</v>
+      </c>
+      <c r="G31">
+        <v>2356</v>
+      </c>
+      <c r="H31">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>3518.86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>300</v>
+      </c>
+      <c r="B32">
+        <v>308</v>
+      </c>
+      <c r="C32">
+        <v>840</v>
+      </c>
+      <c r="D32">
+        <v>1426</v>
+      </c>
+      <c r="E32">
+        <v>1879</v>
+      </c>
+      <c r="F32">
+        <v>2344</v>
+      </c>
+      <c r="G32">
+        <v>2472</v>
+      </c>
+      <c r="H32">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>3640.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>310</v>
+      </c>
+      <c r="B33">
+        <v>325</v>
+      </c>
+      <c r="C33">
+        <v>882</v>
+      </c>
+      <c r="D33">
+        <v>1499</v>
+      </c>
+      <c r="E33">
+        <v>1968</v>
+      </c>
+      <c r="F33">
+        <v>2457</v>
+      </c>
+      <c r="G33">
+        <v>2587</v>
+      </c>
+      <c r="H33">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>3761.54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>320</v>
+      </c>
+      <c r="B34">
+        <v>341</v>
+      </c>
+      <c r="C34">
+        <v>924</v>
+      </c>
+      <c r="D34">
+        <v>1563</v>
+      </c>
+      <c r="E34">
+        <v>2059</v>
+      </c>
+      <c r="F34">
+        <v>2570</v>
+      </c>
+      <c r="G34">
+        <v>2704</v>
+      </c>
+      <c r="H34">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>3882.88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>330</v>
+      </c>
+      <c r="B35">
+        <v>357</v>
+      </c>
+      <c r="C35">
+        <v>966</v>
+      </c>
+      <c r="D35">
+        <v>1635</v>
+      </c>
+      <c r="E35">
+        <v>2151</v>
+      </c>
+      <c r="F35">
+        <v>2684</v>
+      </c>
+      <c r="G35">
+        <v>2821</v>
+      </c>
+      <c r="H35">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>4004.22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>340</v>
+      </c>
+      <c r="B36">
+        <v>372</v>
+      </c>
+      <c r="C36">
+        <v>1005</v>
+      </c>
+      <c r="D36">
+        <v>1707</v>
+      </c>
+      <c r="E36">
+        <v>2234</v>
+      </c>
+      <c r="F36">
+        <v>2788</v>
+      </c>
+      <c r="G36">
+        <v>2939</v>
+      </c>
+      <c r="H36">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>4125.5600000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>350</v>
+      </c>
+      <c r="B37">
+        <v>388</v>
+      </c>
+      <c r="C37">
+        <v>1049</v>
+      </c>
+      <c r="D37">
+        <v>1782</v>
+      </c>
+      <c r="E37">
+        <v>2326</v>
+      </c>
+      <c r="F37">
+        <v>2903</v>
+      </c>
+      <c r="G37">
+        <v>3046</v>
+      </c>
+      <c r="H37">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>4246.8999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>360</v>
+      </c>
+      <c r="B38">
+        <v>405</v>
+      </c>
+      <c r="C38">
+        <v>1093</v>
+      </c>
+      <c r="D38">
+        <v>1850</v>
+      </c>
+      <c r="E38">
+        <v>2419</v>
+      </c>
+      <c r="F38">
+        <v>3018</v>
+      </c>
+      <c r="G38">
+        <v>3164</v>
+      </c>
+      <c r="H38">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>4368.24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>370</v>
+      </c>
+      <c r="B39">
+        <v>422</v>
+      </c>
+      <c r="C39">
+        <v>1137</v>
+      </c>
+      <c r="D39">
+        <v>1924</v>
+      </c>
+      <c r="E39">
+        <v>2513</v>
+      </c>
+      <c r="F39">
+        <v>3134</v>
+      </c>
+      <c r="G39">
+        <v>3284</v>
+      </c>
+      <c r="H39">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>4489.58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>380</v>
+      </c>
+      <c r="B40">
+        <v>437</v>
+      </c>
+      <c r="C40">
+        <v>1178</v>
+      </c>
+      <c r="D40">
+        <v>1998</v>
+      </c>
+      <c r="E40">
+        <v>2598</v>
+      </c>
+      <c r="F40">
+        <v>3240</v>
+      </c>
+      <c r="G40">
+        <v>3403</v>
+      </c>
+      <c r="H40">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>4610.92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>390</v>
+      </c>
+      <c r="B41">
+        <v>454</v>
+      </c>
+      <c r="C41">
+        <v>1222</v>
+      </c>
+      <c r="D41">
+        <v>2074</v>
+      </c>
+      <c r="E41">
+        <v>2692</v>
+      </c>
+      <c r="F41">
+        <v>3356</v>
+      </c>
+      <c r="G41">
+        <v>3512</v>
+      </c>
+      <c r="H41">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>4732.26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>400</v>
+      </c>
+      <c r="B42">
+        <v>471</v>
+      </c>
+      <c r="C42">
+        <v>1267</v>
+      </c>
+      <c r="D42">
+        <v>2144</v>
+      </c>
+      <c r="E42">
+        <v>2787</v>
+      </c>
+      <c r="F42">
+        <v>3473</v>
+      </c>
+      <c r="G42">
+        <v>3632</v>
+      </c>
+      <c r="H42">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>4853.6000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>410</v>
+      </c>
+      <c r="B43">
+        <v>489</v>
+      </c>
+      <c r="C43">
+        <v>1312</v>
+      </c>
+      <c r="D43">
+        <v>2222</v>
+      </c>
+      <c r="E43">
+        <v>2881</v>
+      </c>
+      <c r="F43">
+        <v>3590</v>
+      </c>
+      <c r="G43">
+        <v>3752</v>
+      </c>
+      <c r="H43">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>4974.9399999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>420</v>
+      </c>
+      <c r="B44">
+        <v>505</v>
+      </c>
+      <c r="C44">
+        <v>1354</v>
+      </c>
+      <c r="D44">
+        <v>2300</v>
+      </c>
+      <c r="E44">
+        <v>2968</v>
+      </c>
+      <c r="F44">
+        <v>3697</v>
+      </c>
+      <c r="G44">
+        <v>3873</v>
+      </c>
+      <c r="H44">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>5096.28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>430</v>
+      </c>
+      <c r="B45">
+        <v>523</v>
+      </c>
+      <c r="C45">
+        <v>1400</v>
+      </c>
+      <c r="D45">
+        <v>2377</v>
+      </c>
+      <c r="E45">
+        <v>3063</v>
+      </c>
+      <c r="F45">
+        <v>3815</v>
+      </c>
+      <c r="G45">
+        <v>3983</v>
+      </c>
+      <c r="H45">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>5217.62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>440</v>
+      </c>
+      <c r="B46">
+        <v>540</v>
+      </c>
+      <c r="C46">
+        <v>1445</v>
+      </c>
+      <c r="D46">
+        <v>2447</v>
+      </c>
+      <c r="E46">
+        <v>3160</v>
+      </c>
+      <c r="F46">
+        <v>3932</v>
+      </c>
+      <c r="G46">
+        <v>4103</v>
+      </c>
+      <c r="H46">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>5338.96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>450</v>
+      </c>
+      <c r="B47">
+        <v>558</v>
+      </c>
+      <c r="C47">
+        <v>1492</v>
+      </c>
+      <c r="D47">
+        <v>2526</v>
+      </c>
+      <c r="E47">
+        <v>3257</v>
+      </c>
+      <c r="F47">
+        <v>4049</v>
+      </c>
+      <c r="G47">
+        <v>4225</v>
+      </c>
+      <c r="H47">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>5460.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>460</v>
+      </c>
+      <c r="B48">
+        <v>576</v>
+      </c>
+      <c r="C48">
+        <v>1534</v>
+      </c>
+      <c r="D48">
+        <v>2605</v>
+      </c>
+      <c r="E48">
+        <v>3346</v>
+      </c>
+      <c r="F48">
+        <v>4157</v>
+      </c>
+      <c r="G48">
+        <v>4347</v>
+      </c>
+      <c r="H48">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>5581.64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>470</v>
+      </c>
+      <c r="B49">
+        <v>594</v>
+      </c>
+      <c r="C49">
+        <v>1581</v>
+      </c>
+      <c r="D49">
+        <v>2685</v>
+      </c>
+      <c r="E49">
+        <v>3443</v>
+      </c>
+      <c r="F49">
+        <v>4276</v>
+      </c>
+      <c r="G49">
+        <v>4457</v>
+      </c>
+      <c r="H49">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>5702.98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>480</v>
+      </c>
+      <c r="B50">
+        <v>612</v>
+      </c>
+      <c r="C50">
+        <v>1629</v>
+      </c>
+      <c r="D50">
+        <v>2757</v>
+      </c>
+      <c r="E50">
+        <v>3540</v>
+      </c>
+      <c r="F50">
+        <v>4395</v>
+      </c>
+      <c r="G50">
+        <v>4578</v>
+      </c>
+      <c r="H50">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>5824.32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>490</v>
+      </c>
+      <c r="B51">
+        <v>629</v>
+      </c>
+      <c r="C51">
+        <v>1675</v>
+      </c>
+      <c r="D51">
+        <v>2836</v>
+      </c>
+      <c r="E51">
+        <v>3629</v>
+      </c>
+      <c r="F51">
+        <v>4515</v>
+      </c>
+      <c r="G51">
+        <v>4700</v>
+      </c>
+      <c r="H51">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>5945.66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>500</v>
+      </c>
+      <c r="B52">
+        <v>647</v>
+      </c>
+      <c r="C52">
+        <v>1718</v>
+      </c>
+      <c r="D52">
+        <v>2917</v>
+      </c>
+      <c r="E52">
+        <v>3726</v>
+      </c>
+      <c r="F52">
+        <v>4623</v>
+      </c>
+      <c r="G52">
+        <v>4822</v>
+      </c>
+      <c r="H52">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>6067</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>510</v>
+      </c>
+      <c r="B53">
+        <v>665</v>
+      </c>
+      <c r="C53">
+        <v>1766</v>
+      </c>
+      <c r="D53">
+        <v>2998</v>
+      </c>
+      <c r="E53">
+        <v>3824</v>
+      </c>
+      <c r="F53">
+        <v>4741</v>
+      </c>
+      <c r="G53">
+        <v>4933</v>
+      </c>
+      <c r="H53">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>6188.34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>520</v>
+      </c>
+      <c r="B54">
+        <v>684</v>
+      </c>
+      <c r="C54">
+        <v>1814</v>
+      </c>
+      <c r="D54">
+        <v>3071</v>
+      </c>
+      <c r="E54">
+        <v>3923</v>
+      </c>
+      <c r="F54">
+        <v>4860</v>
+      </c>
+      <c r="G54">
+        <v>5056</v>
+      </c>
+      <c r="H54">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>6309.68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>530</v>
+      </c>
+      <c r="B55">
+        <v>700</v>
+      </c>
+      <c r="C55">
+        <v>1862</v>
+      </c>
+      <c r="D55">
+        <v>3153</v>
+      </c>
+      <c r="E55">
+        <v>4013</v>
+      </c>
+      <c r="F55">
+        <v>4979</v>
+      </c>
+      <c r="G55">
+        <v>5179</v>
+      </c>
+      <c r="H55">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>6431.02</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>540</v>
+      </c>
+      <c r="B56">
+        <v>719</v>
+      </c>
+      <c r="C56">
+        <v>1910</v>
+      </c>
+      <c r="D56">
+        <v>3235</v>
+      </c>
+      <c r="E56">
+        <v>4112</v>
+      </c>
+      <c r="F56">
+        <v>5088</v>
+      </c>
+      <c r="G56">
+        <v>5301</v>
+      </c>
+      <c r="H56">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>6552.36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>550</v>
+      </c>
+      <c r="B57">
+        <v>738</v>
+      </c>
+      <c r="C57">
+        <v>1959</v>
+      </c>
+      <c r="D57">
+        <v>3317</v>
+      </c>
+      <c r="E57">
+        <v>4210</v>
+      </c>
+      <c r="F57">
+        <v>5209</v>
+      </c>
+      <c r="G57">
+        <v>5412</v>
+      </c>
+      <c r="H57">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>6673.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>560</v>
+      </c>
+      <c r="B58">
+        <v>756</v>
+      </c>
+      <c r="C58">
+        <v>2008</v>
+      </c>
+      <c r="D58">
+        <v>3399</v>
+      </c>
+      <c r="E58">
+        <v>4309</v>
+      </c>
+      <c r="F58">
+        <v>5330</v>
+      </c>
+      <c r="G58">
+        <v>5535</v>
+      </c>
+      <c r="H58">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>6795.04</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>570</v>
+      </c>
+      <c r="B59">
+        <v>773</v>
+      </c>
+      <c r="C59">
+        <v>2052</v>
+      </c>
+      <c r="D59">
+        <v>3481</v>
+      </c>
+      <c r="E59">
+        <v>4400</v>
+      </c>
+      <c r="F59">
+        <v>5449</v>
+      </c>
+      <c r="G59">
+        <v>5658</v>
+      </c>
+      <c r="H59">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>6916.38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>580</v>
+      </c>
+      <c r="B60">
+        <v>792</v>
+      </c>
+      <c r="C60">
+        <v>2102</v>
+      </c>
+      <c r="D60">
+        <v>3564</v>
+      </c>
+      <c r="E60">
+        <v>4500</v>
+      </c>
+      <c r="F60">
+        <v>5557</v>
+      </c>
+      <c r="G60">
+        <v>5781</v>
+      </c>
+      <c r="H60">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>7037.72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>590</v>
+      </c>
+      <c r="B61">
+        <v>811</v>
+      </c>
+      <c r="C61">
+        <v>2152</v>
+      </c>
+      <c r="D61">
+        <v>3640</v>
+      </c>
+      <c r="E61">
+        <v>4600</v>
+      </c>
+      <c r="F61">
+        <v>5676</v>
+      </c>
+      <c r="G61">
+        <v>5904</v>
+      </c>
+      <c r="H61">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>7159.06</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>600</v>
+      </c>
+      <c r="B62">
+        <v>829</v>
+      </c>
+      <c r="C62">
+        <v>2201</v>
+      </c>
+      <c r="D62">
+        <v>3724</v>
+      </c>
+      <c r="E62">
+        <v>4700</v>
+      </c>
+      <c r="F62">
+        <v>5797</v>
+      </c>
+      <c r="G62">
+        <v>6027</v>
+      </c>
+      <c r="H62">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>7280.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>610</v>
+      </c>
+      <c r="B63">
+        <v>847</v>
+      </c>
+      <c r="C63">
+        <v>2245</v>
+      </c>
+      <c r="D63">
+        <v>3808</v>
+      </c>
+      <c r="E63">
+        <v>4790</v>
+      </c>
+      <c r="F63">
+        <v>5918</v>
+      </c>
+      <c r="G63">
+        <v>6149</v>
+      </c>
+      <c r="H63">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>7401.74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>620</v>
+      </c>
+      <c r="B64">
+        <v>866</v>
+      </c>
+      <c r="C64">
+        <v>2296</v>
+      </c>
+      <c r="D64">
+        <v>3892</v>
+      </c>
+      <c r="E64">
+        <v>4890</v>
+      </c>
+      <c r="F64">
+        <v>6039</v>
+      </c>
+      <c r="G64">
+        <v>6261</v>
+      </c>
+      <c r="H64">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>7523.08</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>630</v>
+      </c>
+      <c r="B65">
+        <v>885</v>
+      </c>
+      <c r="C65">
+        <v>2346</v>
+      </c>
+      <c r="D65">
+        <v>3968</v>
+      </c>
+      <c r="E65">
+        <v>4991</v>
+      </c>
+      <c r="F65">
+        <v>6160</v>
+      </c>
+      <c r="G65">
+        <v>6383</v>
+      </c>
+      <c r="H65">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>7644.42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>640</v>
+      </c>
+      <c r="B66">
+        <v>904</v>
+      </c>
+      <c r="C66">
+        <v>2398</v>
+      </c>
+      <c r="D66">
+        <v>4052</v>
+      </c>
+      <c r="E66">
+        <v>5092</v>
+      </c>
+      <c r="F66">
+        <v>6279</v>
+      </c>
+      <c r="G66">
+        <v>6507</v>
+      </c>
+      <c r="H66">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>7765.76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>650</v>
+      </c>
+      <c r="B67">
+        <v>921</v>
+      </c>
+      <c r="C67">
+        <v>2445</v>
+      </c>
+      <c r="D67">
+        <v>4137</v>
+      </c>
+      <c r="E67">
+        <v>5184</v>
+      </c>
+      <c r="F67">
+        <v>6388</v>
+      </c>
+      <c r="G67">
+        <v>6630</v>
+      </c>
+      <c r="H67">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>7887.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>660</v>
+      </c>
+      <c r="B68">
+        <v>940</v>
+      </c>
+      <c r="C68">
+        <v>2495</v>
+      </c>
+      <c r="D68">
+        <v>4222</v>
+      </c>
+      <c r="E68">
+        <v>5285</v>
+      </c>
+      <c r="F68">
+        <v>6508</v>
+      </c>
+      <c r="G68">
+        <v>6743</v>
+      </c>
+      <c r="H68">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>8008.44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>670</v>
+      </c>
+      <c r="B69">
+        <v>960</v>
+      </c>
+      <c r="C69">
+        <v>2545</v>
+      </c>
+      <c r="D69">
+        <v>4299</v>
+      </c>
+      <c r="E69">
+        <v>5386</v>
+      </c>
+      <c r="F69">
+        <v>6629</v>
+      </c>
+      <c r="G69">
+        <v>6867</v>
+      </c>
+      <c r="H69">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>8129.78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>680</v>
+      </c>
+      <c r="B70">
+        <v>979</v>
+      </c>
+      <c r="C70">
+        <v>2597</v>
+      </c>
+      <c r="D70">
+        <v>4384</v>
+      </c>
+      <c r="E70">
+        <v>5487</v>
+      </c>
+      <c r="F70">
+        <v>6750</v>
+      </c>
+      <c r="G70">
+        <v>6990</v>
+      </c>
+      <c r="H70">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>8251.1200000000008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>690</v>
+      </c>
+      <c r="B71">
+        <v>996</v>
+      </c>
+      <c r="C71">
+        <v>2644</v>
+      </c>
+      <c r="D71">
+        <v>4470</v>
+      </c>
+      <c r="E71">
+        <v>5579</v>
+      </c>
+      <c r="F71">
+        <v>6860</v>
+      </c>
+      <c r="G71">
+        <v>7113</v>
+      </c>
+      <c r="H71">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>8372.4599999999991</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>700</v>
+      </c>
+      <c r="B72">
+        <v>1016</v>
+      </c>
+      <c r="C72">
+        <v>2696</v>
+      </c>
+      <c r="D72">
+        <v>4556</v>
+      </c>
+      <c r="E72">
+        <v>5681</v>
+      </c>
+      <c r="F72">
+        <v>6981</v>
+      </c>
+      <c r="G72">
+        <v>7225</v>
+      </c>
+      <c r="H72">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>8493.7999999999993</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>710</v>
+      </c>
+      <c r="B73">
+        <v>1035</v>
+      </c>
+      <c r="C73">
+        <v>2748</v>
+      </c>
+      <c r="D73">
+        <v>4633</v>
+      </c>
+      <c r="E73">
+        <v>5781</v>
+      </c>
+      <c r="F73">
+        <v>7100</v>
+      </c>
+      <c r="G73">
+        <v>7348</v>
+      </c>
+      <c r="H73">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>8615.14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>720</v>
+      </c>
+      <c r="B74">
+        <v>1055</v>
+      </c>
+      <c r="C74">
+        <v>2801</v>
+      </c>
+      <c r="D74">
+        <v>4718</v>
+      </c>
+      <c r="E74">
+        <v>5882</v>
+      </c>
+      <c r="F74">
+        <v>7220</v>
+      </c>
+      <c r="G74">
+        <v>7472</v>
+      </c>
+      <c r="H74">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>8736.48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>730</v>
+      </c>
+      <c r="B75">
+        <v>1075</v>
+      </c>
+      <c r="C75">
+        <v>2848</v>
+      </c>
+      <c r="D75">
+        <v>4804</v>
+      </c>
+      <c r="E75">
+        <v>5975</v>
+      </c>
+      <c r="F75">
+        <v>7330</v>
+      </c>
+      <c r="G75">
+        <v>7595</v>
+      </c>
+      <c r="H75">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>8857.82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>740</v>
+      </c>
+      <c r="B76">
+        <v>1094</v>
+      </c>
+      <c r="C76">
+        <v>2900</v>
+      </c>
+      <c r="D76">
+        <v>4891</v>
+      </c>
+      <c r="E76">
+        <v>6076</v>
+      </c>
+      <c r="F76">
+        <v>7450</v>
+      </c>
+      <c r="G76">
+        <v>7708</v>
+      </c>
+      <c r="H76">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>8979.16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>750</v>
+      </c>
+      <c r="B77">
+        <v>1114</v>
+      </c>
+      <c r="C77">
+        <v>2953</v>
+      </c>
+      <c r="D77">
+        <v>4970</v>
+      </c>
+      <c r="E77">
+        <v>6179</v>
+      </c>
+      <c r="F77">
+        <v>7572</v>
+      </c>
+      <c r="G77">
+        <v>7831</v>
+      </c>
+      <c r="H77">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>9100.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>760</v>
+      </c>
+      <c r="B78">
+        <v>1132</v>
+      </c>
+      <c r="C78">
+        <v>3006</v>
+      </c>
+      <c r="D78">
+        <v>5057</v>
+      </c>
+      <c r="E78">
+        <v>6282</v>
+      </c>
+      <c r="F78">
+        <v>7693</v>
+      </c>
+      <c r="G78">
+        <v>7955</v>
+      </c>
+      <c r="H78">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>9221.84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>770</v>
+      </c>
+      <c r="B79">
+        <v>1151</v>
+      </c>
+      <c r="C79">
+        <v>3055</v>
+      </c>
+      <c r="D79">
+        <v>5145</v>
+      </c>
+      <c r="E79">
+        <v>6375</v>
+      </c>
+      <c r="F79">
+        <v>7803</v>
+      </c>
+      <c r="G79">
+        <v>8079</v>
+      </c>
+      <c r="H79">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>9343.18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>780</v>
+      </c>
+      <c r="B80">
+        <v>1171</v>
+      </c>
+      <c r="C80">
+        <v>3108</v>
+      </c>
+      <c r="D80">
+        <v>5231</v>
+      </c>
+      <c r="E80">
+        <v>6476</v>
+      </c>
+      <c r="F80">
+        <v>7924</v>
+      </c>
+      <c r="G80">
+        <v>8190</v>
+      </c>
+      <c r="H80">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>9464.52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>790</v>
+      </c>
+      <c r="B81">
+        <v>1191</v>
+      </c>
+      <c r="C81">
+        <v>3161</v>
+      </c>
+      <c r="D81">
+        <v>5311</v>
+      </c>
+      <c r="E81">
+        <v>6577</v>
+      </c>
+      <c r="F81">
+        <v>8044</v>
+      </c>
+      <c r="G81">
+        <v>8313</v>
+      </c>
+      <c r="H81">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>9585.86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>800</v>
+      </c>
+      <c r="B82">
+        <v>1209</v>
+      </c>
+      <c r="C82">
+        <v>3214</v>
+      </c>
+      <c r="D82">
+        <v>5398</v>
+      </c>
+      <c r="E82">
+        <v>6680</v>
+      </c>
+      <c r="F82">
+        <v>8164</v>
+      </c>
+      <c r="G82">
+        <v>8437</v>
+      </c>
+      <c r="H82">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>9707.2000000000007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>810</v>
+      </c>
+      <c r="B83">
+        <v>1229</v>
+      </c>
+      <c r="C83">
+        <v>3268</v>
+      </c>
+      <c r="D83">
+        <v>5486</v>
+      </c>
+      <c r="E83">
+        <v>6783</v>
+      </c>
+      <c r="F83">
+        <v>8274</v>
+      </c>
+      <c r="G83">
+        <v>8561</v>
+      </c>
+      <c r="H83">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>9828.5400000000009</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>820</v>
+      </c>
+      <c r="B84">
+        <v>1249</v>
+      </c>
+      <c r="C84">
+        <v>3322</v>
+      </c>
+      <c r="D84">
+        <v>5573</v>
+      </c>
+      <c r="E84">
+        <v>6886</v>
+      </c>
+      <c r="F84">
+        <v>8395</v>
+      </c>
+      <c r="G84">
+        <v>8674</v>
+      </c>
+      <c r="H84">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>9949.8799999999992</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>830</v>
+      </c>
+      <c r="B85">
+        <v>1269</v>
+      </c>
+      <c r="C85">
+        <v>3377</v>
+      </c>
+      <c r="D85">
+        <v>5659</v>
+      </c>
+      <c r="E85">
+        <v>6989</v>
+      </c>
+      <c r="F85">
+        <v>8516</v>
+      </c>
+      <c r="G85">
+        <v>8798</v>
+      </c>
+      <c r="H85">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>10071.219999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>840</v>
+      </c>
+      <c r="B86">
+        <v>1287</v>
+      </c>
+      <c r="C86">
+        <v>3427</v>
+      </c>
+      <c r="D86">
+        <v>5747</v>
+      </c>
+      <c r="E86">
+        <v>7082</v>
+      </c>
+      <c r="F86">
+        <v>8637</v>
+      </c>
+      <c r="G86">
+        <v>8922</v>
+      </c>
+      <c r="H86">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>10192.56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>850</v>
+      </c>
+      <c r="B87">
+        <v>1307</v>
+      </c>
+      <c r="C87">
+        <v>3481</v>
+      </c>
+      <c r="D87">
+        <v>5834</v>
+      </c>
+      <c r="E87">
+        <v>7185</v>
+      </c>
+      <c r="F87">
+        <v>8748</v>
+      </c>
+      <c r="G87">
+        <v>9045</v>
+      </c>
+      <c r="H87">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>10313.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>860</v>
+      </c>
+      <c r="B88">
+        <v>1327</v>
+      </c>
+      <c r="C88">
+        <v>3535</v>
+      </c>
+      <c r="D88">
+        <v>5915</v>
+      </c>
+      <c r="E88">
+        <v>7288</v>
+      </c>
+      <c r="F88">
+        <v>8868</v>
+      </c>
+      <c r="G88">
+        <v>9157</v>
+      </c>
+      <c r="H88">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>10435.24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>870</v>
+      </c>
+      <c r="B89">
+        <v>1347</v>
+      </c>
+      <c r="C89">
+        <v>3590</v>
+      </c>
+      <c r="D89">
+        <v>6004</v>
+      </c>
+      <c r="E89">
+        <v>7391</v>
+      </c>
+      <c r="F89">
+        <v>8989</v>
+      </c>
+      <c r="G89">
+        <v>9281</v>
+      </c>
+      <c r="H89">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>10556.58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>880</v>
+      </c>
+      <c r="B90">
+        <v>1366</v>
+      </c>
+      <c r="C90">
+        <v>3641</v>
+      </c>
+      <c r="D90">
+        <v>6093</v>
+      </c>
+      <c r="E90">
+        <v>7485</v>
+      </c>
+      <c r="F90">
+        <v>9109</v>
+      </c>
+      <c r="G90">
+        <v>9405</v>
+      </c>
+      <c r="H90">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>10677.92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>890</v>
+      </c>
+      <c r="B91">
+        <v>1386</v>
+      </c>
+      <c r="C91">
+        <v>3696</v>
+      </c>
+      <c r="D91">
+        <v>6180</v>
+      </c>
+      <c r="E91">
+        <v>7587</v>
+      </c>
+      <c r="F91">
+        <v>9231</v>
+      </c>
+      <c r="G91">
+        <v>9529</v>
+      </c>
+      <c r="H91">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>10799.26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>900</v>
+      </c>
+      <c r="B92">
+        <v>1406</v>
+      </c>
+      <c r="C92">
+        <v>3752</v>
+      </c>
+      <c r="D92">
+        <v>6260</v>
+      </c>
+      <c r="E92">
+        <v>7690</v>
+      </c>
+      <c r="F92">
+        <v>9352</v>
+      </c>
+      <c r="G92">
+        <v>9653</v>
+      </c>
+      <c r="H92">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>10920.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>910</v>
+      </c>
+      <c r="B93">
+        <v>1427</v>
+      </c>
+      <c r="C93">
+        <v>3807</v>
+      </c>
+      <c r="D93">
+        <v>6348</v>
+      </c>
+      <c r="E93">
+        <v>7793</v>
+      </c>
+      <c r="F93">
+        <v>9474</v>
+      </c>
+      <c r="G93">
+        <v>9776</v>
+      </c>
+      <c r="H93">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>11041.94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>920</v>
+      </c>
+      <c r="B94">
+        <v>1445</v>
+      </c>
+      <c r="C94">
+        <v>3858</v>
+      </c>
+      <c r="D94">
+        <v>6437</v>
+      </c>
+      <c r="E94">
+        <v>7887</v>
+      </c>
+      <c r="F94">
+        <v>9584</v>
+      </c>
+      <c r="G94">
+        <v>9900</v>
+      </c>
+      <c r="H94">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>11163.28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>930</v>
+      </c>
+      <c r="B95">
+        <v>1465</v>
+      </c>
+      <c r="C95">
+        <v>3914</v>
+      </c>
+      <c r="D95">
+        <v>6526</v>
+      </c>
+      <c r="E95">
+        <v>7991</v>
+      </c>
+      <c r="F95">
+        <v>9705</v>
+      </c>
+      <c r="G95">
+        <v>10013</v>
+      </c>
+      <c r="H95">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>11284.62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>940</v>
+      </c>
+      <c r="B96">
+        <v>1486</v>
+      </c>
+      <c r="C96">
+        <v>3970</v>
+      </c>
+      <c r="D96">
+        <v>6607</v>
+      </c>
+      <c r="E96">
+        <v>8095</v>
+      </c>
+      <c r="F96">
+        <v>9826</v>
+      </c>
+      <c r="G96">
+        <v>10137</v>
+      </c>
+      <c r="H96">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>11405.96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>950</v>
+      </c>
+      <c r="B97">
+        <v>1506</v>
+      </c>
+      <c r="C97">
+        <v>4026</v>
+      </c>
+      <c r="D97">
+        <v>6696</v>
+      </c>
+      <c r="E97">
+        <v>8199</v>
+      </c>
+      <c r="F97">
+        <v>9946</v>
+      </c>
+      <c r="G97">
+        <v>10261</v>
+      </c>
+      <c r="H97">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>11527.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>960</v>
+      </c>
+      <c r="B98">
+        <v>1525</v>
+      </c>
+      <c r="C98">
+        <v>4078</v>
+      </c>
+      <c r="D98">
+        <v>6784</v>
+      </c>
+      <c r="E98">
+        <v>8293</v>
+      </c>
+      <c r="F98">
+        <v>10056</v>
+      </c>
+      <c r="G98">
+        <v>10385</v>
+      </c>
+      <c r="H98">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>11648.64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>970</v>
+      </c>
+      <c r="B99">
+        <v>1545</v>
+      </c>
+      <c r="C99">
+        <v>4134</v>
+      </c>
+      <c r="D99">
+        <v>6873</v>
+      </c>
+      <c r="E99">
+        <v>8396</v>
+      </c>
+      <c r="F99">
+        <v>10177</v>
+      </c>
+      <c r="G99">
+        <v>10497</v>
+      </c>
+      <c r="H99">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>11769.98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>980</v>
+      </c>
+      <c r="B100">
+        <v>1566</v>
+      </c>
+      <c r="C100">
+        <v>4190</v>
+      </c>
+      <c r="D100">
+        <v>6953</v>
+      </c>
+      <c r="E100">
+        <v>8500</v>
+      </c>
+      <c r="F100">
+        <v>10298</v>
+      </c>
+      <c r="G100">
+        <v>10621</v>
+      </c>
+      <c r="H100">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>11891.32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>990</v>
+      </c>
+      <c r="B101">
+        <v>1586</v>
+      </c>
+      <c r="C101">
+        <v>4247</v>
+      </c>
+      <c r="D101">
+        <v>7042</v>
+      </c>
+      <c r="E101">
+        <v>8603</v>
+      </c>
+      <c r="F101">
+        <v>10420</v>
+      </c>
+      <c r="G101">
+        <v>10745</v>
+      </c>
+      <c r="H101">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>12012.66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1000</v>
+      </c>
+      <c r="B102">
+        <v>1605</v>
+      </c>
+      <c r="C102">
+        <v>4299</v>
+      </c>
+      <c r="D102">
+        <v>7132</v>
+      </c>
+      <c r="E102">
+        <v>8697</v>
+      </c>
+      <c r="F102">
+        <v>10530</v>
+      </c>
+      <c r="G102">
+        <v>10869</v>
+      </c>
+      <c r="H102">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>12134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1010</v>
+      </c>
+      <c r="B103">
+        <v>1625</v>
+      </c>
+      <c r="C103">
+        <v>4357</v>
+      </c>
+      <c r="D103">
+        <v>7221</v>
+      </c>
+      <c r="E103">
+        <v>8802</v>
+      </c>
+      <c r="F103">
+        <v>10652</v>
+      </c>
+      <c r="G103">
+        <v>10982</v>
+      </c>
+      <c r="H103">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>12255.34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1020</v>
+      </c>
+      <c r="B104">
+        <v>1646</v>
+      </c>
+      <c r="C104">
+        <v>4414</v>
+      </c>
+      <c r="D104">
+        <v>7303</v>
+      </c>
+      <c r="E104">
+        <v>8906</v>
+      </c>
+      <c r="F104">
+        <v>10773</v>
+      </c>
+      <c r="G104">
+        <v>11106</v>
+      </c>
+      <c r="H104">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>12376.68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1030</v>
+      </c>
+      <c r="B105">
+        <v>1666</v>
+      </c>
+      <c r="C105">
+        <v>4472</v>
+      </c>
+      <c r="D105">
+        <v>7393</v>
+      </c>
+      <c r="E105">
+        <v>9009</v>
+      </c>
+      <c r="F105">
+        <v>10894</v>
+      </c>
+      <c r="G105">
+        <v>11230</v>
+      </c>
+      <c r="H105">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>12498.02</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1040</v>
+      </c>
+      <c r="B106">
+        <v>1687</v>
+      </c>
+      <c r="C106">
+        <v>4524</v>
+      </c>
+      <c r="D106">
+        <v>7481</v>
+      </c>
+      <c r="E106">
+        <v>9103</v>
+      </c>
+      <c r="F106">
+        <v>11004</v>
+      </c>
+      <c r="G106">
+        <v>11354</v>
+      </c>
+      <c r="H106">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>12619.36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1050</v>
+      </c>
+      <c r="B107">
+        <v>1708</v>
+      </c>
+      <c r="C107">
+        <v>4582</v>
+      </c>
+      <c r="D107">
+        <v>7569</v>
+      </c>
+      <c r="E107">
+        <v>9206</v>
+      </c>
+      <c r="F107">
+        <v>11125</v>
+      </c>
+      <c r="G107">
+        <v>11467</v>
+      </c>
+      <c r="H107">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>12740.7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1060</v>
+      </c>
+      <c r="B108">
+        <v>1728</v>
+      </c>
+      <c r="C108">
+        <v>4640</v>
+      </c>
+      <c r="D108">
+        <v>7650</v>
+      </c>
+      <c r="E108">
+        <v>9310</v>
+      </c>
+      <c r="F108">
+        <v>11246</v>
+      </c>
+      <c r="G108">
+        <v>11591</v>
+      </c>
+      <c r="H108">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>12862.04</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1070</v>
+      </c>
+      <c r="B109">
+        <v>1747</v>
+      </c>
+      <c r="C109">
+        <v>4699</v>
+      </c>
+      <c r="D109">
+        <v>7739</v>
+      </c>
+      <c r="E109">
+        <v>9414</v>
+      </c>
+      <c r="F109">
+        <v>11368</v>
+      </c>
+      <c r="G109">
+        <v>11715</v>
+      </c>
+      <c r="H109">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>12983.38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1080</v>
+      </c>
+      <c r="B110">
+        <v>1767</v>
+      </c>
+      <c r="C110">
+        <v>4751</v>
+      </c>
+      <c r="D110">
+        <v>7829</v>
+      </c>
+      <c r="E110">
+        <v>9519</v>
+      </c>
+      <c r="F110">
+        <v>11479</v>
+      </c>
+      <c r="G110">
+        <v>11839</v>
+      </c>
+      <c r="H110">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>13104.72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1090</v>
+      </c>
+      <c r="B111">
+        <v>1788</v>
+      </c>
+      <c r="C111">
+        <v>4810</v>
+      </c>
+      <c r="D111">
+        <v>7919</v>
+      </c>
+      <c r="E111">
+        <v>9623</v>
+      </c>
+      <c r="F111">
+        <v>11600</v>
+      </c>
+      <c r="G111">
+        <v>11952</v>
+      </c>
+      <c r="H111">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>13226.06</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1100</v>
+      </c>
+      <c r="B112">
+        <v>1809</v>
+      </c>
+      <c r="C112">
+        <v>4868</v>
+      </c>
+      <c r="D112">
+        <v>8001</v>
+      </c>
+      <c r="E112">
+        <v>9727</v>
+      </c>
+      <c r="F112">
+        <v>11722</v>
+      </c>
+      <c r="G112">
+        <v>12076</v>
+      </c>
+      <c r="H112">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>13347.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1110</v>
+      </c>
+      <c r="B113">
+        <v>1829</v>
+      </c>
+      <c r="C113">
+        <v>4927</v>
+      </c>
+      <c r="D113">
+        <v>8091</v>
+      </c>
+      <c r="E113">
+        <v>9820</v>
+      </c>
+      <c r="F113">
+        <v>11843</v>
+      </c>
+      <c r="G113">
+        <v>12200</v>
+      </c>
+      <c r="H113">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>13468.74</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1120</v>
+      </c>
+      <c r="B114">
+        <v>1850</v>
+      </c>
+      <c r="C114">
+        <v>4987</v>
+      </c>
+      <c r="D114">
+        <v>8180</v>
+      </c>
+      <c r="E114">
+        <v>9924</v>
+      </c>
+      <c r="F114">
+        <v>11953</v>
+      </c>
+      <c r="G114">
+        <v>12324</v>
+      </c>
+      <c r="H114">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>13590.08</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1130</v>
+      </c>
+      <c r="B115">
+        <v>1870</v>
+      </c>
+      <c r="C115">
+        <v>5046</v>
+      </c>
+      <c r="D115">
+        <v>8269</v>
+      </c>
+      <c r="E115">
+        <v>10028</v>
+      </c>
+      <c r="F115">
+        <v>12075</v>
+      </c>
+      <c r="G115">
+        <v>12437</v>
+      </c>
+      <c r="H115">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>13711.42</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1140</v>
+      </c>
+      <c r="B116">
+        <v>1891</v>
+      </c>
+      <c r="C116">
+        <v>5105</v>
+      </c>
+      <c r="D116">
+        <v>8359</v>
+      </c>
+      <c r="E116">
+        <v>10132</v>
+      </c>
+      <c r="F116">
+        <v>12196</v>
+      </c>
+      <c r="G116">
+        <v>12561</v>
+      </c>
+      <c r="H116">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>13832.76</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1150</v>
+      </c>
+      <c r="B117">
+        <v>1910</v>
+      </c>
+      <c r="C117">
+        <v>5159</v>
+      </c>
+      <c r="D117">
+        <v>8448</v>
+      </c>
+      <c r="E117">
+        <v>10227</v>
+      </c>
+      <c r="F117">
+        <v>12318</v>
+      </c>
+      <c r="G117">
+        <v>12686</v>
+      </c>
+      <c r="H117">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>13954.1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1160</v>
+      </c>
+      <c r="B118">
+        <v>1931</v>
+      </c>
+      <c r="C118">
+        <v>5218</v>
+      </c>
+      <c r="D118">
+        <v>8539</v>
+      </c>
+      <c r="E118">
+        <v>10332</v>
+      </c>
+      <c r="F118">
+        <v>12429</v>
+      </c>
+      <c r="G118">
+        <v>12810</v>
+      </c>
+      <c r="H118">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>14075.44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1170</v>
+      </c>
+      <c r="B119">
+        <v>1952</v>
+      </c>
+      <c r="C119">
+        <v>5278</v>
+      </c>
+      <c r="D119">
+        <v>8620</v>
+      </c>
+      <c r="E119">
+        <v>10436</v>
+      </c>
+      <c r="F119">
+        <v>12550</v>
+      </c>
+      <c r="G119">
+        <v>12933</v>
+      </c>
+      <c r="H119">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>14196.78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1180</v>
+      </c>
+      <c r="B120">
+        <v>1973</v>
+      </c>
+      <c r="C120">
+        <v>5338</v>
+      </c>
+      <c r="D120">
+        <v>8709</v>
+      </c>
+      <c r="E120">
+        <v>10540</v>
+      </c>
+      <c r="F120">
+        <v>12672</v>
+      </c>
+      <c r="G120">
+        <v>13057</v>
+      </c>
+      <c r="H120">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>14318.12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1190</v>
+      </c>
+      <c r="B121">
+        <v>1992</v>
+      </c>
+      <c r="C121">
+        <v>5393</v>
+      </c>
+      <c r="D121">
+        <v>8799</v>
+      </c>
+      <c r="E121">
+        <v>10634</v>
+      </c>
+      <c r="F121">
+        <v>12794</v>
+      </c>
+      <c r="G121">
+        <v>13182</v>
+      </c>
+      <c r="H121">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>14439.46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1200</v>
+      </c>
+      <c r="B122">
+        <v>2012</v>
+      </c>
+      <c r="C122">
+        <v>5454</v>
+      </c>
+      <c r="D122">
+        <v>8889</v>
+      </c>
+      <c r="E122">
+        <v>10737</v>
+      </c>
+      <c r="F122">
+        <v>12915</v>
+      </c>
+      <c r="G122">
+        <v>13295</v>
+      </c>
+      <c r="H122">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>14560.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1210</v>
+      </c>
+      <c r="B123">
+        <v>2033</v>
+      </c>
+      <c r="C123">
+        <v>5513</v>
+      </c>
+      <c r="D123">
+        <v>8971</v>
+      </c>
+      <c r="E123">
+        <v>10842</v>
+      </c>
+      <c r="F123">
+        <v>13037</v>
+      </c>
+      <c r="G123">
+        <v>13419</v>
+      </c>
+      <c r="H123">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>14682.14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1220</v>
+      </c>
+      <c r="B124">
+        <v>2055</v>
+      </c>
+      <c r="C124">
+        <v>5573</v>
+      </c>
+      <c r="D124">
+        <v>9061</v>
+      </c>
+      <c r="E124">
+        <v>10946</v>
+      </c>
+      <c r="F124">
+        <v>13158</v>
+      </c>
+      <c r="G124">
+        <v>13543</v>
+      </c>
+      <c r="H124">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>14803.48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1230</v>
+      </c>
+      <c r="B125">
+        <v>2074</v>
+      </c>
+      <c r="C125">
+        <v>5628</v>
+      </c>
+      <c r="D125">
+        <v>9150</v>
+      </c>
+      <c r="E125">
+        <v>11041</v>
+      </c>
+      <c r="F125">
+        <v>13269</v>
+      </c>
+      <c r="G125">
+        <v>13667</v>
+      </c>
+      <c r="H125">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>14924.82</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1240</v>
+      </c>
+      <c r="B126">
+        <v>2095</v>
+      </c>
+      <c r="C126">
+        <v>5689</v>
+      </c>
+      <c r="D126">
+        <v>9239</v>
+      </c>
+      <c r="E126">
+        <v>11145</v>
+      </c>
+      <c r="F126">
+        <v>13390</v>
+      </c>
+      <c r="G126">
+        <v>13780</v>
+      </c>
+      <c r="H126">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>15046.16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1250</v>
+      </c>
+      <c r="B127">
+        <v>2116</v>
+      </c>
+      <c r="C127">
+        <v>5750</v>
+      </c>
+      <c r="D127">
+        <v>9321</v>
+      </c>
+      <c r="E127">
+        <v>11250</v>
+      </c>
+      <c r="F127">
+        <v>13512</v>
+      </c>
+      <c r="G127">
+        <v>13905</v>
+      </c>
+      <c r="H127">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>15167.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1260</v>
+      </c>
+      <c r="B128">
+        <v>2138</v>
+      </c>
+      <c r="C128">
+        <v>5812</v>
+      </c>
+      <c r="D128">
+        <v>9411</v>
+      </c>
+      <c r="E128">
+        <v>11354</v>
+      </c>
+      <c r="F128">
+        <v>13634</v>
+      </c>
+      <c r="G128">
+        <v>14029</v>
+      </c>
+      <c r="H128">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>15288.84</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1270</v>
+      </c>
+      <c r="B129">
+        <v>2157</v>
+      </c>
+      <c r="C129">
+        <v>5867</v>
+      </c>
+      <c r="D129">
+        <v>9501</v>
+      </c>
+      <c r="E129">
+        <v>11447</v>
+      </c>
+      <c r="F129">
+        <v>13745</v>
+      </c>
+      <c r="G129">
+        <v>14153</v>
+      </c>
+      <c r="H129">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>15410.18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1280</v>
+      </c>
+      <c r="B130">
+        <v>2178</v>
+      </c>
+      <c r="C130">
+        <v>5928</v>
+      </c>
+      <c r="D130">
+        <v>9591</v>
+      </c>
+      <c r="E130">
+        <v>11551</v>
+      </c>
+      <c r="F130">
+        <v>13867</v>
+      </c>
+      <c r="G130">
+        <v>14266</v>
+      </c>
+      <c r="H130">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>15531.52</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1290</v>
+      </c>
+      <c r="B131">
+        <v>2200</v>
+      </c>
+      <c r="C131">
+        <v>5989</v>
+      </c>
+      <c r="D131">
+        <v>9673</v>
+      </c>
+      <c r="E131">
+        <v>11655</v>
+      </c>
+      <c r="F131">
+        <v>13988</v>
+      </c>
+      <c r="G131">
+        <v>14390</v>
+      </c>
+      <c r="H131">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>15652.86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1300</v>
+      </c>
+      <c r="B132">
+        <v>2221</v>
+      </c>
+      <c r="C132">
+        <v>6050</v>
+      </c>
+      <c r="D132">
+        <v>9763</v>
+      </c>
+      <c r="E132">
+        <v>11759</v>
+      </c>
+      <c r="F132">
+        <v>14109</v>
+      </c>
+      <c r="G132">
+        <v>14514</v>
+      </c>
+      <c r="H132">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>15774.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1310</v>
+      </c>
+      <c r="B133">
+        <v>2242</v>
+      </c>
+      <c r="C133">
+        <v>6106</v>
+      </c>
+      <c r="D133">
+        <v>9853</v>
+      </c>
+      <c r="E133">
+        <v>11854</v>
+      </c>
+      <c r="F133">
+        <v>14220</v>
+      </c>
+      <c r="G133">
+        <v>14638</v>
+      </c>
+      <c r="H133">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>15895.54</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1320</v>
+      </c>
+      <c r="B134">
+        <v>2264</v>
+      </c>
+      <c r="C134">
+        <v>6168</v>
+      </c>
+      <c r="D134">
+        <v>9943</v>
+      </c>
+      <c r="E134">
+        <v>11959</v>
+      </c>
+      <c r="F134">
+        <v>14342</v>
+      </c>
+      <c r="G134">
+        <v>14752</v>
+      </c>
+      <c r="H134">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>16016.88</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1330</v>
+      </c>
+      <c r="B135">
+        <v>2285</v>
+      </c>
+      <c r="C135">
+        <v>6230</v>
+      </c>
+      <c r="D135">
+        <v>10025</v>
+      </c>
+      <c r="E135">
+        <v>12064</v>
+      </c>
+      <c r="F135">
+        <v>14464</v>
+      </c>
+      <c r="G135">
+        <v>14876</v>
+      </c>
+      <c r="H135">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>16138.22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1340</v>
+      </c>
+      <c r="B136">
+        <v>2305</v>
+      </c>
+      <c r="C136">
+        <v>6292</v>
+      </c>
+      <c r="D136">
+        <v>10115</v>
+      </c>
+      <c r="E136">
+        <v>12167</v>
+      </c>
+      <c r="F136">
+        <v>14586</v>
+      </c>
+      <c r="G136">
+        <v>15001</v>
+      </c>
+      <c r="H136">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>16259.56</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1350</v>
+      </c>
+      <c r="B137">
+        <v>2327</v>
+      </c>
+      <c r="C137">
+        <v>6348</v>
+      </c>
+      <c r="D137">
+        <v>10205</v>
+      </c>
+      <c r="E137">
+        <v>12261</v>
+      </c>
+      <c r="F137">
+        <v>14696</v>
+      </c>
+      <c r="G137">
+        <v>15125</v>
+      </c>
+      <c r="H137">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>16380.9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1360</v>
+      </c>
+      <c r="B138">
+        <v>2348</v>
+      </c>
+      <c r="C138">
+        <v>6409</v>
+      </c>
+      <c r="D138">
+        <v>10295</v>
+      </c>
+      <c r="E138">
+        <v>12365</v>
+      </c>
+      <c r="F138">
+        <v>14819</v>
+      </c>
+      <c r="G138">
+        <v>15238</v>
+      </c>
+      <c r="H138">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>16502.240000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1370</v>
+      </c>
+      <c r="B139">
+        <v>2370</v>
+      </c>
+      <c r="C139">
+        <v>6471</v>
+      </c>
+      <c r="D139">
+        <v>10378</v>
+      </c>
+      <c r="E139">
+        <v>12469</v>
+      </c>
+      <c r="F139">
+        <v>14940</v>
+      </c>
+      <c r="G139">
+        <v>15362</v>
+      </c>
+      <c r="H139">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>16623.580000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1380</v>
+      </c>
+      <c r="B140">
+        <v>2389</v>
+      </c>
+      <c r="C140">
+        <v>6533</v>
+      </c>
+      <c r="D140">
+        <v>10468</v>
+      </c>
+      <c r="E140">
+        <v>12573</v>
+      </c>
+      <c r="F140">
+        <v>15061</v>
+      </c>
+      <c r="G140">
+        <v>15486</v>
+      </c>
+      <c r="H140">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>16744.919999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1390</v>
+      </c>
+      <c r="B141">
+        <v>2411</v>
+      </c>
+      <c r="C141">
+        <v>6596</v>
+      </c>
+      <c r="D141">
+        <v>10558</v>
+      </c>
+      <c r="E141">
+        <v>12678</v>
+      </c>
+      <c r="F141">
+        <v>15171</v>
+      </c>
+      <c r="G141">
+        <v>15611</v>
+      </c>
+      <c r="H141">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>16866.259999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1400</v>
+      </c>
+      <c r="B142">
+        <v>2432</v>
+      </c>
+      <c r="C142">
+        <v>6659</v>
+      </c>
+      <c r="D142">
+        <v>10648</v>
+      </c>
+      <c r="E142">
+        <v>12783</v>
+      </c>
+      <c r="F142">
+        <v>15293</v>
+      </c>
+      <c r="G142">
+        <v>15723</v>
+      </c>
+      <c r="H142">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>16987.599999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1410</v>
+      </c>
+      <c r="B143">
+        <v>2454</v>
+      </c>
+      <c r="C143">
+        <v>6722</v>
+      </c>
+      <c r="D143">
+        <v>10738</v>
+      </c>
+      <c r="E143">
+        <v>12888</v>
+      </c>
+      <c r="F143">
+        <v>15415</v>
+      </c>
+      <c r="G143">
+        <v>15847</v>
+      </c>
+      <c r="H143">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>17108.939999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1420</v>
+      </c>
+      <c r="B144">
+        <v>2474</v>
+      </c>
+      <c r="C144">
+        <v>6779</v>
+      </c>
+      <c r="D144">
+        <v>10828</v>
+      </c>
+      <c r="E144">
+        <v>12981</v>
+      </c>
+      <c r="F144">
+        <v>15538</v>
+      </c>
+      <c r="G144">
+        <v>15971</v>
+      </c>
+      <c r="H144">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>17230.28</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1430</v>
+      </c>
+      <c r="B145">
+        <v>2496</v>
+      </c>
+      <c r="C145">
+        <v>6841</v>
+      </c>
+      <c r="D145">
+        <v>10919</v>
+      </c>
+      <c r="E145">
+        <v>13084</v>
+      </c>
+      <c r="F145">
+        <v>15649</v>
+      </c>
+      <c r="G145">
+        <v>16096</v>
+      </c>
+      <c r="H145">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>17351.62</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1440</v>
+      </c>
+      <c r="B146">
+        <v>2518</v>
+      </c>
+      <c r="C146">
+        <v>6903</v>
+      </c>
+      <c r="D146">
+        <v>11001</v>
+      </c>
+      <c r="E146">
+        <v>13188</v>
+      </c>
+      <c r="F146">
+        <v>15771</v>
+      </c>
+      <c r="G146">
+        <v>16209</v>
+      </c>
+      <c r="H146">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>17472.96</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1450</v>
+      </c>
+      <c r="B147">
+        <v>2539</v>
+      </c>
+      <c r="C147">
+        <v>6966</v>
+      </c>
+      <c r="D147">
+        <v>11093</v>
+      </c>
+      <c r="E147">
+        <v>13293</v>
+      </c>
+      <c r="F147">
+        <v>15892</v>
+      </c>
+      <c r="G147">
+        <v>16333</v>
+      </c>
+      <c r="H147">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>17594.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1460</v>
+      </c>
+      <c r="B148">
+        <v>2559</v>
+      </c>
+      <c r="C148">
+        <v>7023</v>
+      </c>
+      <c r="D148">
+        <v>11184</v>
+      </c>
+      <c r="E148">
+        <v>13388</v>
+      </c>
+      <c r="F148">
+        <v>16014</v>
+      </c>
+      <c r="G148">
+        <v>16458</v>
+      </c>
+      <c r="H148">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>17715.64</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1470</v>
+      </c>
+      <c r="B149">
+        <v>2581</v>
+      </c>
+      <c r="C149">
+        <v>7087</v>
+      </c>
+      <c r="D149">
+        <v>11274</v>
+      </c>
+      <c r="E149">
+        <v>13493</v>
+      </c>
+      <c r="F149">
+        <v>16136</v>
+      </c>
+      <c r="G149">
+        <v>16583</v>
+      </c>
+      <c r="H149">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>17836.98</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1480</v>
+      </c>
+      <c r="B150">
+        <v>2603</v>
+      </c>
+      <c r="C150">
+        <v>7151</v>
+      </c>
+      <c r="D150">
+        <v>11357</v>
+      </c>
+      <c r="E150">
+        <v>13597</v>
+      </c>
+      <c r="F150">
+        <v>16258</v>
+      </c>
+      <c r="G150">
+        <v>16707</v>
+      </c>
+      <c r="H150">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>17958.32</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1490</v>
+      </c>
+      <c r="B151">
+        <v>2625</v>
+      </c>
+      <c r="C151">
+        <v>7215</v>
+      </c>
+      <c r="D151">
+        <v>11447</v>
+      </c>
+      <c r="E151">
+        <v>13701</v>
+      </c>
+      <c r="F151">
+        <v>16380</v>
+      </c>
+      <c r="G151">
+        <v>16832</v>
+      </c>
+      <c r="H151">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>18079.66</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1500</v>
+      </c>
+      <c r="B152">
+        <v>2645</v>
+      </c>
+      <c r="C152">
+        <v>7273</v>
+      </c>
+      <c r="D152">
+        <v>11538</v>
+      </c>
+      <c r="E152">
+        <v>13796</v>
+      </c>
+      <c r="F152">
+        <v>16491</v>
+      </c>
+      <c r="G152">
+        <v>16956</v>
+      </c>
+      <c r="H152">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>18201</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1510</v>
+      </c>
+      <c r="B153">
+        <v>2667</v>
+      </c>
+      <c r="C153">
+        <v>7335</v>
+      </c>
+      <c r="D153">
+        <v>11629</v>
+      </c>
+      <c r="E153">
+        <v>13900</v>
+      </c>
+      <c r="F153">
+        <v>16613</v>
+      </c>
+      <c r="G153">
+        <v>17069</v>
+      </c>
+      <c r="H153">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>18322.34</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1520</v>
+      </c>
+      <c r="B154">
+        <v>2689</v>
+      </c>
+      <c r="C154">
+        <v>7398</v>
+      </c>
+      <c r="D154">
+        <v>11711</v>
+      </c>
+      <c r="E154">
+        <v>14004</v>
+      </c>
+      <c r="F154">
+        <v>16734</v>
+      </c>
+      <c r="G154">
+        <v>17193</v>
+      </c>
+      <c r="H154">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>18443.68</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1530</v>
+      </c>
+      <c r="B155">
+        <v>2711</v>
+      </c>
+      <c r="C155">
+        <v>7462</v>
+      </c>
+      <c r="D155">
+        <v>11802</v>
+      </c>
+      <c r="E155">
+        <v>14109</v>
+      </c>
+      <c r="F155">
+        <v>16856</v>
+      </c>
+      <c r="G155">
+        <v>17318</v>
+      </c>
+      <c r="H155">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>18565.02</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1540</v>
+      </c>
+      <c r="B156">
+        <v>2730</v>
+      </c>
+      <c r="C156">
+        <v>7520</v>
+      </c>
+      <c r="D156">
+        <v>11893</v>
+      </c>
+      <c r="E156">
+        <v>14204</v>
+      </c>
+      <c r="F156">
+        <v>16967</v>
+      </c>
+      <c r="G156">
+        <v>17442</v>
+      </c>
+      <c r="H156">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>18686.36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1550</v>
+      </c>
+      <c r="B157">
+        <v>2753</v>
+      </c>
+      <c r="C157">
+        <v>7584</v>
+      </c>
+      <c r="D157">
+        <v>11983</v>
+      </c>
+      <c r="E157">
+        <v>14309</v>
+      </c>
+      <c r="F157">
+        <v>17089</v>
+      </c>
+      <c r="G157">
+        <v>17555</v>
+      </c>
+      <c r="H157">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>18807.7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1560</v>
+      </c>
+      <c r="B158">
+        <v>2775</v>
+      </c>
+      <c r="C158">
+        <v>7649</v>
+      </c>
+      <c r="D158">
+        <v>12066</v>
+      </c>
+      <c r="E158">
+        <v>14412</v>
+      </c>
+      <c r="F158">
+        <v>17211</v>
+      </c>
+      <c r="G158">
+        <v>17680</v>
+      </c>
+      <c r="H158">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>18929.04</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1570</v>
+      </c>
+      <c r="B159">
+        <v>2797</v>
+      </c>
+      <c r="C159">
+        <v>7713</v>
+      </c>
+      <c r="D159">
+        <v>12157</v>
+      </c>
+      <c r="E159">
+        <v>14516</v>
+      </c>
+      <c r="F159">
+        <v>17333</v>
+      </c>
+      <c r="G159">
+        <v>17804</v>
+      </c>
+      <c r="H159">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>19050.38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1580</v>
+      </c>
+      <c r="B160">
+        <v>2818</v>
+      </c>
+      <c r="C160">
+        <v>7771</v>
+      </c>
+      <c r="D160">
+        <v>12249</v>
+      </c>
+      <c r="E160">
+        <v>14611</v>
+      </c>
+      <c r="F160">
+        <v>17444</v>
+      </c>
+      <c r="G160">
+        <v>17929</v>
+      </c>
+      <c r="H160">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>19171.72</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1590</v>
+      </c>
+      <c r="B161">
+        <v>2840</v>
+      </c>
+      <c r="C161">
+        <v>7835</v>
+      </c>
+      <c r="D161">
+        <v>12339</v>
+      </c>
+      <c r="E161">
+        <v>14715</v>
+      </c>
+      <c r="F161">
+        <v>17565</v>
+      </c>
+      <c r="G161">
+        <v>18042</v>
+      </c>
+      <c r="H161">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>19293.060000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1600</v>
+      </c>
+      <c r="B162">
+        <v>2862</v>
+      </c>
+      <c r="C162">
+        <v>7899</v>
+      </c>
+      <c r="D162">
+        <v>12422</v>
+      </c>
+      <c r="E162">
+        <v>14820</v>
+      </c>
+      <c r="F162">
+        <v>17686</v>
+      </c>
+      <c r="G162">
+        <v>18166</v>
+      </c>
+      <c r="H162">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>19414.400000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1610</v>
+      </c>
+      <c r="B163">
+        <v>2884</v>
+      </c>
+      <c r="C163">
+        <v>7964</v>
+      </c>
+      <c r="D163">
+        <v>12513</v>
+      </c>
+      <c r="E163">
+        <v>14926</v>
+      </c>
+      <c r="F163">
+        <v>17808</v>
+      </c>
+      <c r="G163">
+        <v>18291</v>
+      </c>
+      <c r="H163">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>19535.740000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1620</v>
+      </c>
+      <c r="B164">
+        <v>2906</v>
+      </c>
+      <c r="C164">
+        <v>8022</v>
+      </c>
+      <c r="D164">
+        <v>12603</v>
+      </c>
+      <c r="E164">
+        <v>15021</v>
+      </c>
+      <c r="F164">
+        <v>17920</v>
+      </c>
+      <c r="G164">
+        <v>18415</v>
+      </c>
+      <c r="H164">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>19657.080000000002</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1630</v>
+      </c>
+      <c r="B165">
+        <v>2928</v>
+      </c>
+      <c r="C165">
+        <v>8087</v>
+      </c>
+      <c r="D165">
+        <v>12695</v>
+      </c>
+      <c r="E165">
+        <v>15127</v>
+      </c>
+      <c r="F165">
+        <v>18042</v>
+      </c>
+      <c r="G165">
+        <v>18528</v>
+      </c>
+      <c r="H165">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>19778.419999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1640</v>
+      </c>
+      <c r="B166">
+        <v>2951</v>
+      </c>
+      <c r="C166">
+        <v>8151</v>
+      </c>
+      <c r="D166">
+        <v>12778</v>
+      </c>
+      <c r="E166">
+        <v>15231</v>
+      </c>
+      <c r="F166">
+        <v>18165</v>
+      </c>
+      <c r="G166">
+        <v>18653</v>
+      </c>
+      <c r="H166">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>19899.759999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1650</v>
+      </c>
+      <c r="B167">
+        <v>2971</v>
+      </c>
+      <c r="C167">
+        <v>8215</v>
+      </c>
+      <c r="D167">
+        <v>12870</v>
+      </c>
+      <c r="E167">
+        <v>15335</v>
+      </c>
+      <c r="F167">
+        <v>18286</v>
+      </c>
+      <c r="G167">
+        <v>18778</v>
+      </c>
+      <c r="H167">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>20021.099999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1660</v>
+      </c>
+      <c r="B168">
+        <v>2994</v>
+      </c>
+      <c r="C168">
+        <v>8274</v>
+      </c>
+      <c r="D168">
+        <v>12961</v>
+      </c>
+      <c r="E168">
+        <v>15440</v>
+      </c>
+      <c r="F168">
+        <v>18396</v>
+      </c>
+      <c r="G168">
+        <v>18903</v>
+      </c>
+      <c r="H168">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>20142.439999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1670</v>
+      </c>
+      <c r="B169">
+        <v>3016</v>
+      </c>
+      <c r="C169">
+        <v>8339</v>
+      </c>
+      <c r="D169">
+        <v>13051</v>
+      </c>
+      <c r="E169">
+        <v>15544</v>
+      </c>
+      <c r="F169">
+        <v>18518</v>
+      </c>
+      <c r="G169">
+        <v>19016</v>
+      </c>
+      <c r="H169">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>20263.78</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1680</v>
+      </c>
+      <c r="B170">
+        <v>3038</v>
+      </c>
+      <c r="C170">
+        <v>8404</v>
+      </c>
+      <c r="D170">
+        <v>13134</v>
+      </c>
+      <c r="E170">
+        <v>15650</v>
+      </c>
+      <c r="F170">
+        <v>18640</v>
+      </c>
+      <c r="G170">
+        <v>19140</v>
+      </c>
+      <c r="H170">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>20385.12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1690</v>
+      </c>
+      <c r="B171">
+        <v>3059</v>
+      </c>
+      <c r="C171">
+        <v>8470</v>
+      </c>
+      <c r="D171">
+        <v>13225</v>
+      </c>
+      <c r="E171">
+        <v>15745</v>
+      </c>
+      <c r="F171">
+        <v>18763</v>
+      </c>
+      <c r="G171">
+        <v>19264</v>
+      </c>
+      <c r="H171">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>20506.46</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1700</v>
+      </c>
+      <c r="B172">
+        <v>3081</v>
+      </c>
+      <c r="C172">
+        <v>8535</v>
+      </c>
+      <c r="D172">
+        <v>13316</v>
+      </c>
+      <c r="E172">
+        <v>15851</v>
+      </c>
+      <c r="F172">
+        <v>18874</v>
+      </c>
+      <c r="G172">
+        <v>19389</v>
+      </c>
+      <c r="H172">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>20627.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1710</v>
+      </c>
+      <c r="B173">
+        <v>3103</v>
+      </c>
+      <c r="C173">
+        <v>8600</v>
+      </c>
+      <c r="D173">
+        <v>13409</v>
+      </c>
+      <c r="E173">
+        <v>15956</v>
+      </c>
+      <c r="F173">
+        <v>18997</v>
+      </c>
+      <c r="G173">
+        <v>19503</v>
+      </c>
+      <c r="H173">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>20749.14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1720</v>
+      </c>
+      <c r="B174">
+        <v>3126</v>
+      </c>
+      <c r="C174">
+        <v>8665</v>
+      </c>
+      <c r="D174">
+        <v>13500</v>
+      </c>
+      <c r="E174">
+        <v>16060</v>
+      </c>
+      <c r="F174">
+        <v>19118</v>
+      </c>
+      <c r="G174">
+        <v>19628</v>
+      </c>
+      <c r="H174">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>20870.48</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1730</v>
+      </c>
+      <c r="B175">
+        <v>3147</v>
+      </c>
+      <c r="C175">
+        <v>8724</v>
+      </c>
+      <c r="D175">
+        <v>13592</v>
+      </c>
+      <c r="E175">
+        <v>16155</v>
+      </c>
+      <c r="F175">
+        <v>19239</v>
+      </c>
+      <c r="G175">
+        <v>19753</v>
+      </c>
+      <c r="H175">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>20991.82</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1740</v>
+      </c>
+      <c r="B176">
+        <v>3169</v>
+      </c>
+      <c r="C176">
+        <v>8789</v>
+      </c>
+      <c r="D176">
+        <v>13683</v>
+      </c>
+      <c r="E176">
+        <v>16259</v>
+      </c>
+      <c r="F176">
+        <v>19350</v>
+      </c>
+      <c r="G176">
+        <v>19877</v>
+      </c>
+      <c r="H176">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>21113.16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1750</v>
+      </c>
+      <c r="B177">
+        <v>3191</v>
+      </c>
+      <c r="C177">
+        <v>8854</v>
+      </c>
+      <c r="D177">
+        <v>13766</v>
+      </c>
+      <c r="E177">
+        <v>16365</v>
+      </c>
+      <c r="F177">
+        <v>19472</v>
+      </c>
+      <c r="G177">
+        <v>20002</v>
+      </c>
+      <c r="H177">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>21234.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1760</v>
+      </c>
+      <c r="B178">
+        <v>3214</v>
+      </c>
+      <c r="C178">
+        <v>8920</v>
+      </c>
+      <c r="D178">
+        <v>13858</v>
+      </c>
+      <c r="E178">
+        <v>16471</v>
+      </c>
+      <c r="F178">
+        <v>19594</v>
+      </c>
+      <c r="G178">
+        <v>20127</v>
+      </c>
+      <c r="H178">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>21355.84</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1770</v>
+      </c>
+      <c r="B179">
+        <v>3234</v>
+      </c>
+      <c r="C179">
+        <v>8980</v>
+      </c>
+      <c r="D179">
+        <v>13949</v>
+      </c>
+      <c r="E179">
+        <v>16567</v>
+      </c>
+      <c r="F179">
+        <v>19717</v>
+      </c>
+      <c r="G179">
+        <v>20252</v>
+      </c>
+      <c r="H179">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>21477.18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1780</v>
+      </c>
+      <c r="B180">
+        <v>3257</v>
+      </c>
+      <c r="C180">
+        <v>9046</v>
+      </c>
+      <c r="D180">
+        <v>14041</v>
+      </c>
+      <c r="E180">
+        <v>16673</v>
+      </c>
+      <c r="F180">
+        <v>19840</v>
+      </c>
+      <c r="G180">
+        <v>20365</v>
+      </c>
+      <c r="H180">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>21598.52</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1790</v>
+      </c>
+      <c r="B181">
+        <v>3280</v>
+      </c>
+      <c r="C181">
+        <v>9112</v>
+      </c>
+      <c r="D181">
+        <v>14124</v>
+      </c>
+      <c r="E181">
+        <v>16777</v>
+      </c>
+      <c r="F181">
+        <v>19962</v>
+      </c>
+      <c r="G181">
+        <v>20490</v>
+      </c>
+      <c r="H181">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>21719.86</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1800</v>
+      </c>
+      <c r="B182">
+        <v>3303</v>
+      </c>
+      <c r="C182">
+        <v>9177</v>
+      </c>
+      <c r="D182">
+        <v>14216</v>
+      </c>
+      <c r="E182">
+        <v>16881</v>
+      </c>
+      <c r="F182">
+        <v>20083</v>
+      </c>
+      <c r="G182">
+        <v>20614</v>
+      </c>
+      <c r="H182">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>21841.200000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1810</v>
+      </c>
+      <c r="B183">
+        <v>3323</v>
+      </c>
+      <c r="C183">
+        <v>9237</v>
+      </c>
+      <c r="D183">
+        <v>14307</v>
+      </c>
+      <c r="E183">
+        <v>16976</v>
+      </c>
+      <c r="F183">
+        <v>20194</v>
+      </c>
+      <c r="G183">
+        <v>20738</v>
+      </c>
+      <c r="H183">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>21962.54</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1820</v>
+      </c>
+      <c r="B184">
+        <v>3346</v>
+      </c>
+      <c r="C184">
+        <v>9303</v>
+      </c>
+      <c r="D184">
+        <v>14399</v>
+      </c>
+      <c r="E184">
+        <v>17081</v>
+      </c>
+      <c r="F184">
+        <v>20316</v>
+      </c>
+      <c r="G184">
+        <v>20851</v>
+      </c>
+      <c r="H184">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>22083.88</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1830</v>
+      </c>
+      <c r="B185">
+        <v>3368</v>
+      </c>
+      <c r="C185">
+        <v>9369</v>
+      </c>
+      <c r="D185">
+        <v>14482</v>
+      </c>
+      <c r="E185">
+        <v>17187</v>
+      </c>
+      <c r="F185">
+        <v>20437</v>
+      </c>
+      <c r="G185">
+        <v>20976</v>
+      </c>
+      <c r="H185">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>22205.22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1840</v>
+      </c>
+      <c r="B186">
+        <v>3391</v>
+      </c>
+      <c r="C186">
+        <v>9435</v>
+      </c>
+      <c r="D186">
+        <v>14573</v>
+      </c>
+      <c r="E186">
+        <v>17293</v>
+      </c>
+      <c r="F186">
+        <v>20560</v>
+      </c>
+      <c r="G186">
+        <v>21101</v>
+      </c>
+      <c r="H186">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>22326.560000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1850</v>
+      </c>
+      <c r="B187">
+        <v>3412</v>
+      </c>
+      <c r="C187">
+        <v>9495</v>
+      </c>
+      <c r="D187">
+        <v>14665</v>
+      </c>
+      <c r="E187">
+        <v>17390</v>
+      </c>
+      <c r="F187">
+        <v>20670</v>
+      </c>
+      <c r="G187">
+        <v>21227</v>
+      </c>
+      <c r="H187">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>22447.9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1860</v>
+      </c>
+      <c r="B188">
+        <v>3435</v>
+      </c>
+      <c r="C188">
+        <v>9561</v>
+      </c>
+      <c r="D188">
+        <v>14757</v>
+      </c>
+      <c r="E188">
+        <v>17495</v>
+      </c>
+      <c r="F188">
+        <v>20793</v>
+      </c>
+      <c r="G188">
+        <v>21341</v>
+      </c>
+      <c r="H188">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>22569.24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1870</v>
+      </c>
+      <c r="B189">
+        <v>3458</v>
+      </c>
+      <c r="C189">
+        <v>9627</v>
+      </c>
+      <c r="D189">
+        <v>14840</v>
+      </c>
+      <c r="E189">
+        <v>17599</v>
+      </c>
+      <c r="F189">
+        <v>20915</v>
+      </c>
+      <c r="G189">
+        <v>21466</v>
+      </c>
+      <c r="H189">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>22690.58</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1880</v>
+      </c>
+      <c r="B190">
+        <v>3481</v>
+      </c>
+      <c r="C190">
+        <v>9694</v>
+      </c>
+      <c r="D190">
+        <v>14932</v>
+      </c>
+      <c r="E190">
+        <v>17704</v>
+      </c>
+      <c r="F190">
+        <v>21036</v>
+      </c>
+      <c r="G190">
+        <v>21590</v>
+      </c>
+      <c r="H190">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>22811.919999999998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1890</v>
+      </c>
+      <c r="B191">
+        <v>3503</v>
+      </c>
+      <c r="C191">
+        <v>9754</v>
+      </c>
+      <c r="D191">
+        <v>15024</v>
+      </c>
+      <c r="E191">
+        <v>17800</v>
+      </c>
+      <c r="F191">
+        <v>21147</v>
+      </c>
+      <c r="G191">
+        <v>21715</v>
+      </c>
+      <c r="H191">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>22933.26</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1900</v>
+      </c>
+      <c r="B192">
+        <v>3526</v>
+      </c>
+      <c r="C192">
+        <v>9820</v>
+      </c>
+      <c r="D192">
+        <v>15115</v>
+      </c>
+      <c r="E192">
+        <v>17905</v>
+      </c>
+      <c r="F192">
+        <v>21269</v>
+      </c>
+      <c r="G192">
+        <v>21828</v>
+      </c>
+      <c r="H192">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>23054.6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1910</v>
+      </c>
+      <c r="B193">
+        <v>3549</v>
+      </c>
+      <c r="C193">
+        <v>9887</v>
+      </c>
+      <c r="D193">
+        <v>15198</v>
+      </c>
+      <c r="E193">
+        <v>18011</v>
+      </c>
+      <c r="F193">
+        <v>21391</v>
+      </c>
+      <c r="G193">
+        <v>21953</v>
+      </c>
+      <c r="H193">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>23175.94</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1920</v>
+      </c>
+      <c r="B194">
+        <v>3570</v>
+      </c>
+      <c r="C194">
+        <v>9953</v>
+      </c>
+      <c r="D194">
+        <v>15289</v>
+      </c>
+      <c r="E194">
+        <v>18116</v>
+      </c>
+      <c r="F194">
+        <v>21513</v>
+      </c>
+      <c r="G194">
+        <v>22077</v>
+      </c>
+      <c r="H194">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>23297.279999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>1930</v>
+      </c>
+      <c r="B195">
+        <v>3593</v>
+      </c>
+      <c r="C195">
+        <v>10013</v>
+      </c>
+      <c r="D195">
+        <v>15381</v>
+      </c>
+      <c r="E195">
+        <v>18212</v>
+      </c>
+      <c r="F195">
+        <v>21624</v>
+      </c>
+      <c r="G195">
+        <v>22202</v>
+      </c>
+      <c r="H195">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>23418.62</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1940</v>
+      </c>
+      <c r="B196">
+        <v>3616</v>
+      </c>
+      <c r="C196">
+        <v>10079</v>
+      </c>
+      <c r="D196">
+        <v>15474</v>
+      </c>
+      <c r="E196">
+        <v>18317</v>
+      </c>
+      <c r="F196">
+        <v>21747</v>
+      </c>
+      <c r="G196">
+        <v>22316</v>
+      </c>
+      <c r="H196">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>23539.96</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1950</v>
+      </c>
+      <c r="B197">
+        <v>3639</v>
+      </c>
+      <c r="C197">
+        <v>10146</v>
+      </c>
+      <c r="D197">
+        <v>15558</v>
+      </c>
+      <c r="E197">
+        <v>18423</v>
+      </c>
+      <c r="F197">
+        <v>21869</v>
+      </c>
+      <c r="G197">
+        <v>22441</v>
+      </c>
+      <c r="H197">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>23661.3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1960</v>
+      </c>
+      <c r="B198">
+        <v>3660</v>
+      </c>
+      <c r="C198">
+        <v>10213</v>
+      </c>
+      <c r="D198">
+        <v>15650</v>
+      </c>
+      <c r="E198">
+        <v>18528</v>
+      </c>
+      <c r="F198">
+        <v>21990</v>
+      </c>
+      <c r="G198">
+        <v>22565</v>
+      </c>
+      <c r="H198">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>23782.639999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1970</v>
+      </c>
+      <c r="B199">
+        <v>3683</v>
+      </c>
+      <c r="C199">
+        <v>10280</v>
+      </c>
+      <c r="D199">
+        <v>15741</v>
+      </c>
+      <c r="E199">
+        <v>18633</v>
+      </c>
+      <c r="F199">
+        <v>22101</v>
+      </c>
+      <c r="G199">
+        <v>22690</v>
+      </c>
+      <c r="H199">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>23903.98</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1980</v>
+      </c>
+      <c r="B200">
+        <v>3706</v>
+      </c>
+      <c r="C200">
+        <v>10346</v>
+      </c>
+      <c r="D200">
+        <v>15833</v>
+      </c>
+      <c r="E200">
+        <v>18739</v>
+      </c>
+      <c r="F200">
+        <v>22223</v>
+      </c>
+      <c r="G200">
+        <v>22803</v>
+      </c>
+      <c r="H200">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>24025.32</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1990</v>
+      </c>
+      <c r="B201">
+        <v>3729</v>
+      </c>
+      <c r="C201">
+        <v>10413</v>
+      </c>
+      <c r="D201">
+        <v>15924</v>
+      </c>
+      <c r="E201">
+        <v>18844</v>
+      </c>
+      <c r="F201">
+        <v>22345</v>
+      </c>
+      <c r="G201">
+        <v>22928</v>
+      </c>
+      <c r="H201">
+        <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
+        <v>24146.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\4 ano\Orientada a obeto\ProjetoSemestral\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A776744F-BCD0-4F7E-A2E6-410D92928D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA20BAA-E93B-4969-B635-0EF2EEC112AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{C03263EB-8750-4946-8F22-03F56D2BE8A1}"/>
   </bookViews>
@@ -15897,304 +15897,304 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>120</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>130</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>140</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>150</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>160</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>170</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>180</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>190</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>200</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>210</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>220</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>230</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>240</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>250</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>260</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>270</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>280</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>290</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>300</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>310</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>320</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>330</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>340</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>350</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>360</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>370</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>380</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>390</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>400</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>410</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>420</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>430</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>440</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>450</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>460</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>470</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>480</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>490</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>500</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>510</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>520</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>530</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>540</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>550</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>560</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>570</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>580</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>590</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>600</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>610</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>620</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>630</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>640</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>650</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>660</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>670</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>680</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>690</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>700</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>710</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>720</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>730</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>740</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>750</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>760</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>770</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>780</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>790</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>800</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>810</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>820</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>830</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>840</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>850</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>860</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>870</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>880</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>890</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>900</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>910</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>920</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>930</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>940</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>950</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>960</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>970</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>980</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>990</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16553,304 +16553,304 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>120</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>130</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>140</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>150</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>160</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>170</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>180</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>190</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>200</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>210</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>220</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>230</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>240</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>250</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>260</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>270</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>280</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>290</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>300</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>310</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>320</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>330</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>340</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>350</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>360</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>370</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>380</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>390</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>400</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>410</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>420</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>430</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>440</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>450</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>460</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>470</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>480</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>490</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>500</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>510</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>520</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>530</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>540</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>550</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>560</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>570</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>580</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>590</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>600</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>610</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>620</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>630</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>640</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>650</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>660</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>670</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>680</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>690</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>700</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>710</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>720</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>730</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>740</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>750</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>760</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>770</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>780</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>790</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>800</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>810</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>820</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>830</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>840</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>850</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>860</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>870</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>880</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>890</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>900</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>910</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>920</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>930</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>940</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>950</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>960</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>970</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>980</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>990</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16883,7 +16883,7 @@
                   <c:v>728.04</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>849.38</c:v>
+                  <c:v>849.38000000000011</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>970.72</c:v>
@@ -16904,7 +16904,7 @@
                   <c:v>1577.42</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1698.76</c:v>
+                  <c:v>1698.7600000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1820.1</c:v>
@@ -16943,13 +16943,13 @@
                   <c:v>3154.84</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3276.18</c:v>
+                  <c:v>3276.1800000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3397.52</c:v>
+                  <c:v>3397.5200000000004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3518.86</c:v>
+                  <c:v>3518.8599999999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3640.2</c:v>
@@ -16961,7 +16961,7 @@
                   <c:v>3882.88</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4004.22</c:v>
+                  <c:v>4004.2200000000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>4125.5600000000004</c:v>
@@ -17024,22 +17024,22 @@
                   <c:v>6431.02</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6552.36</c:v>
+                  <c:v>6552.3600000000006</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6673.7</c:v>
+                  <c:v>6673.7000000000007</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6795.04</c:v>
+                  <c:v>6795.0400000000009</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6916.38</c:v>
+                  <c:v>6916.3799999999992</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7037.72</c:v>
+                  <c:v>7037.7199999999993</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7159.06</c:v>
+                  <c:v>7159.0599999999995</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>7280.4</c:v>
@@ -17060,10 +17060,10 @@
                   <c:v>7887.1</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8008.44</c:v>
+                  <c:v>8008.4400000000005</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8129.78</c:v>
+                  <c:v>8129.7800000000007</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>8251.1200000000008</c:v>
@@ -19115,16 +19115,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>371473</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33627,8 +33627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFCFF2E-3E9E-4523-9568-A75F41B9794E}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33692,7 +33692,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -33719,7 +33719,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>20</v>
+        <v>0.02</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -33746,7 +33746,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>30</v>
+        <v>0.03</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -33773,7 +33773,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>40</v>
+        <v>0.04</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -33800,7 +33800,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>50</v>
+        <v>0.05</v>
       </c>
       <c r="B7">
         <v>16</v>
@@ -33827,7 +33827,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>60</v>
+        <v>0.06</v>
       </c>
       <c r="B8">
         <v>23</v>
@@ -33854,7 +33854,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>70</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B9">
         <v>29</v>
@@ -33876,12 +33876,12 @@
       </c>
       <c r="H9">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>849.38</v>
+        <v>849.38000000000011</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>80</v>
+        <v>0.08</v>
       </c>
       <c r="B10">
         <v>36</v>
@@ -33908,7 +33908,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>90</v>
+        <v>0.09</v>
       </c>
       <c r="B11">
         <v>44</v>
@@ -33935,7 +33935,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="B12">
         <v>53</v>
@@ -33962,7 +33962,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>110</v>
+        <v>0.11</v>
       </c>
       <c r="B13">
         <v>62</v>
@@ -33989,7 +33989,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>120</v>
+        <v>0.12</v>
       </c>
       <c r="B14">
         <v>72</v>
@@ -34016,7 +34016,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>130</v>
+        <v>0.13</v>
       </c>
       <c r="B15">
         <v>82</v>
@@ -34043,7 +34043,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>140</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="B16">
         <v>93</v>
@@ -34065,12 +34065,12 @@
       </c>
       <c r="H16">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>1698.76</v>
+        <v>1698.7600000000002</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>150</v>
+        <v>0.15</v>
       </c>
       <c r="B17">
         <v>104</v>
@@ -34097,7 +34097,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>160</v>
+        <v>0.16</v>
       </c>
       <c r="B18">
         <v>116</v>
@@ -34124,7 +34124,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>170</v>
+        <v>0.17</v>
       </c>
       <c r="B19">
         <v>129</v>
@@ -34151,7 +34151,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>180</v>
+        <v>0.18</v>
       </c>
       <c r="B20">
         <v>140</v>
@@ -34178,7 +34178,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>190</v>
+        <v>0.19</v>
       </c>
       <c r="B21">
         <v>153</v>
@@ -34205,7 +34205,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="B22">
         <v>166</v>
@@ -34232,7 +34232,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>210</v>
+        <v>0.21</v>
       </c>
       <c r="B23">
         <v>179</v>
@@ -34259,7 +34259,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>220</v>
+        <v>0.22</v>
       </c>
       <c r="B24">
         <v>192</v>
@@ -34286,7 +34286,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>230</v>
+        <v>0.23</v>
       </c>
       <c r="B25">
         <v>206</v>
@@ -34313,7 +34313,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>240</v>
+        <v>0.24</v>
       </c>
       <c r="B26">
         <v>220</v>
@@ -34340,7 +34340,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>250</v>
+        <v>0.25</v>
       </c>
       <c r="B27">
         <v>235</v>
@@ -34367,7 +34367,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>260</v>
+        <v>0.26</v>
       </c>
       <c r="B28">
         <v>249</v>
@@ -34394,7 +34394,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>270</v>
+        <v>0.27</v>
       </c>
       <c r="B29">
         <v>264</v>
@@ -34416,12 +34416,12 @@
       </c>
       <c r="H29">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>3276.18</v>
+        <v>3276.1800000000003</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>280</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B30">
         <v>279</v>
@@ -34443,12 +34443,12 @@
       </c>
       <c r="H30">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>3397.52</v>
+        <v>3397.5200000000004</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>290</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="B31">
         <v>294</v>
@@ -34470,12 +34470,12 @@
       </c>
       <c r="H31">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>3518.86</v>
+        <v>3518.8599999999997</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>300</v>
+        <v>0.3</v>
       </c>
       <c r="B32">
         <v>308</v>
@@ -34502,7 +34502,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>310</v>
+        <v>0.31</v>
       </c>
       <c r="B33">
         <v>325</v>
@@ -34529,7 +34529,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>320</v>
+        <v>0.32</v>
       </c>
       <c r="B34">
         <v>341</v>
@@ -34556,7 +34556,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>330</v>
+        <v>0.33</v>
       </c>
       <c r="B35">
         <v>357</v>
@@ -34578,12 +34578,12 @@
       </c>
       <c r="H35">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>4004.22</v>
+        <v>4004.2200000000003</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>340</v>
+        <v>0.34</v>
       </c>
       <c r="B36">
         <v>372</v>
@@ -34610,7 +34610,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>350</v>
+        <v>0.35</v>
       </c>
       <c r="B37">
         <v>388</v>
@@ -34637,7 +34637,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>360</v>
+        <v>0.36</v>
       </c>
       <c r="B38">
         <v>405</v>
@@ -34664,7 +34664,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>370</v>
+        <v>0.37</v>
       </c>
       <c r="B39">
         <v>422</v>
@@ -34691,7 +34691,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>380</v>
+        <v>0.38</v>
       </c>
       <c r="B40">
         <v>437</v>
@@ -34718,7 +34718,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>390</v>
+        <v>0.39</v>
       </c>
       <c r="B41">
         <v>454</v>
@@ -34745,7 +34745,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>400</v>
+        <v>0.4</v>
       </c>
       <c r="B42">
         <v>471</v>
@@ -34772,7 +34772,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>410</v>
+        <v>0.41</v>
       </c>
       <c r="B43">
         <v>489</v>
@@ -34799,7 +34799,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>420</v>
+        <v>0.42</v>
       </c>
       <c r="B44">
         <v>505</v>
@@ -34826,7 +34826,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>430</v>
+        <v>0.43</v>
       </c>
       <c r="B45">
         <v>523</v>
@@ -34853,7 +34853,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>440</v>
+        <v>0.44</v>
       </c>
       <c r="B46">
         <v>540</v>
@@ -34880,7 +34880,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>450</v>
+        <v>0.45</v>
       </c>
       <c r="B47">
         <v>558</v>
@@ -34907,7 +34907,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>460</v>
+        <v>0.46</v>
       </c>
       <c r="B48">
         <v>576</v>
@@ -34934,7 +34934,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>470</v>
+        <v>0.47</v>
       </c>
       <c r="B49">
         <v>594</v>
@@ -34961,7 +34961,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>480</v>
+        <v>0.48</v>
       </c>
       <c r="B50">
         <v>612</v>
@@ -34988,7 +34988,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>490</v>
+        <v>0.49</v>
       </c>
       <c r="B51">
         <v>629</v>
@@ -35015,7 +35015,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="B52">
         <v>647</v>
@@ -35042,7 +35042,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>510</v>
+        <v>0.51</v>
       </c>
       <c r="B53">
         <v>665</v>
@@ -35069,7 +35069,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>520</v>
+        <v>0.52</v>
       </c>
       <c r="B54">
         <v>684</v>
@@ -35096,7 +35096,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>530</v>
+        <v>0.53</v>
       </c>
       <c r="B55">
         <v>700</v>
@@ -35123,7 +35123,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>540</v>
+        <v>0.54</v>
       </c>
       <c r="B56">
         <v>719</v>
@@ -35145,12 +35145,12 @@
       </c>
       <c r="H56">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>6552.36</v>
+        <v>6552.3600000000006</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>550</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B57">
         <v>738</v>
@@ -35172,12 +35172,12 @@
       </c>
       <c r="H57">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>6673.7</v>
+        <v>6673.7000000000007</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>560</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="B58">
         <v>756</v>
@@ -35199,12 +35199,12 @@
       </c>
       <c r="H58">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>6795.04</v>
+        <v>6795.0400000000009</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>570</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="B59">
         <v>773</v>
@@ -35226,12 +35226,12 @@
       </c>
       <c r="H59">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>6916.38</v>
+        <v>6916.3799999999992</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>580</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="B60">
         <v>792</v>
@@ -35253,12 +35253,12 @@
       </c>
       <c r="H60">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>7037.72</v>
+        <v>7037.7199999999993</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>590</v>
+        <v>0.59</v>
       </c>
       <c r="B61">
         <v>811</v>
@@ -35280,12 +35280,12 @@
       </c>
       <c r="H61">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>7159.06</v>
+        <v>7159.0599999999995</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>600</v>
+        <v>0.6</v>
       </c>
       <c r="B62">
         <v>829</v>
@@ -35312,7 +35312,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>610</v>
+        <v>0.61</v>
       </c>
       <c r="B63">
         <v>847</v>
@@ -35339,7 +35339,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>620</v>
+        <v>0.62</v>
       </c>
       <c r="B64">
         <v>866</v>
@@ -35366,7 +35366,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>630</v>
+        <v>0.63</v>
       </c>
       <c r="B65">
         <v>885</v>
@@ -35393,7 +35393,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>640</v>
+        <v>0.64</v>
       </c>
       <c r="B66">
         <v>904</v>
@@ -35420,7 +35420,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>650</v>
+        <v>0.65</v>
       </c>
       <c r="B67">
         <v>921</v>
@@ -35447,7 +35447,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>660</v>
+        <v>0.66</v>
       </c>
       <c r="B68">
         <v>940</v>
@@ -35469,12 +35469,12 @@
       </c>
       <c r="H68">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>8008.44</v>
+        <v>8008.4400000000005</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>670</v>
+        <v>0.67</v>
       </c>
       <c r="B69">
         <v>960</v>
@@ -35496,12 +35496,12 @@
       </c>
       <c r="H69">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>8129.78</v>
+        <v>8129.7800000000007</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>680</v>
+        <v>0.68</v>
       </c>
       <c r="B70">
         <v>979</v>
@@ -35528,7 +35528,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>690</v>
+        <v>0.69</v>
       </c>
       <c r="B71">
         <v>996</v>
@@ -35555,7 +35555,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="B72">
         <v>1016</v>
@@ -35582,7 +35582,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>710</v>
+        <v>0.71</v>
       </c>
       <c r="B73">
         <v>1035</v>
@@ -35609,7 +35609,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>720</v>
+        <v>0.72</v>
       </c>
       <c r="B74">
         <v>1055</v>
@@ -35636,7 +35636,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>730</v>
+        <v>0.73</v>
       </c>
       <c r="B75">
         <v>1075</v>
@@ -35663,7 +35663,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>740</v>
+        <v>0.74</v>
       </c>
       <c r="B76">
         <v>1094</v>
@@ -35690,7 +35690,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>750</v>
+        <v>0.75</v>
       </c>
       <c r="B77">
         <v>1114</v>
@@ -35717,7 +35717,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>760</v>
+        <v>0.76</v>
       </c>
       <c r="B78">
         <v>1132</v>
@@ -35744,7 +35744,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>770</v>
+        <v>0.77</v>
       </c>
       <c r="B79">
         <v>1151</v>
@@ -35771,7 +35771,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>780</v>
+        <v>0.78</v>
       </c>
       <c r="B80">
         <v>1171</v>
@@ -35798,7 +35798,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>790</v>
+        <v>0.79</v>
       </c>
       <c r="B81">
         <v>1191</v>
@@ -35825,7 +35825,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="B82">
         <v>1209</v>
@@ -35852,7 +35852,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>810</v>
+        <v>0.81</v>
       </c>
       <c r="B83">
         <v>1229</v>
@@ -35879,7 +35879,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>820</v>
+        <v>0.82</v>
       </c>
       <c r="B84">
         <v>1249</v>
@@ -35906,7 +35906,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>830</v>
+        <v>0.83</v>
       </c>
       <c r="B85">
         <v>1269</v>
@@ -35933,7 +35933,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>840</v>
+        <v>0.84</v>
       </c>
       <c r="B86">
         <v>1287</v>
@@ -35960,7 +35960,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>850</v>
+        <v>0.85</v>
       </c>
       <c r="B87">
         <v>1307</v>
@@ -35987,7 +35987,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>860</v>
+        <v>0.86</v>
       </c>
       <c r="B88">
         <v>1327</v>
@@ -36014,7 +36014,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>870</v>
+        <v>0.87</v>
       </c>
       <c r="B89">
         <v>1347</v>
@@ -36041,7 +36041,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>880</v>
+        <v>0.88</v>
       </c>
       <c r="B90">
         <v>1366</v>
@@ -36068,7 +36068,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>890</v>
+        <v>0.89</v>
       </c>
       <c r="B91">
         <v>1386</v>
@@ -36095,7 +36095,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>900</v>
+        <v>0.9</v>
       </c>
       <c r="B92">
         <v>1406</v>
@@ -36122,7 +36122,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>910</v>
+        <v>0.91</v>
       </c>
       <c r="B93">
         <v>1427</v>
@@ -36149,7 +36149,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>920</v>
+        <v>0.92</v>
       </c>
       <c r="B94">
         <v>1445</v>
@@ -36176,7 +36176,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>930</v>
+        <v>0.93</v>
       </c>
       <c r="B95">
         <v>1465</v>
@@ -36203,7 +36203,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>940</v>
+        <v>0.94</v>
       </c>
       <c r="B96">
         <v>1486</v>
@@ -36230,7 +36230,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>950</v>
+        <v>0.95</v>
       </c>
       <c r="B97">
         <v>1506</v>
@@ -36257,7 +36257,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>960</v>
+        <v>0.96</v>
       </c>
       <c r="B98">
         <v>1525</v>
@@ -36284,7 +36284,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>970</v>
+        <v>0.97</v>
       </c>
       <c r="B99">
         <v>1545</v>
@@ -36311,7 +36311,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>980</v>
+        <v>0.98</v>
       </c>
       <c r="B100">
         <v>1566</v>
@@ -36338,7 +36338,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>990</v>
+        <v>0.99</v>
       </c>
       <c r="B101">
         <v>1586</v>
@@ -36365,7 +36365,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="B102">
         <v>1605</v>
@@ -36392,7 +36392,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1010</v>
+        <v>1.01</v>
       </c>
       <c r="B103">
         <v>1625</v>
@@ -36419,7 +36419,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1020</v>
+        <v>1.02</v>
       </c>
       <c r="B104">
         <v>1646</v>
@@ -36446,7 +36446,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1030</v>
+        <v>1.03</v>
       </c>
       <c r="B105">
         <v>1666</v>
@@ -36473,7 +36473,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1040</v>
+        <v>1.04</v>
       </c>
       <c r="B106">
         <v>1687</v>
@@ -36500,7 +36500,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1050</v>
+        <v>1.05</v>
       </c>
       <c r="B107">
         <v>1708</v>
@@ -36527,7 +36527,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1060</v>
+        <v>1.06</v>
       </c>
       <c r="B108">
         <v>1728</v>
@@ -36554,7 +36554,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1070</v>
+        <v>1.07</v>
       </c>
       <c r="B109">
         <v>1747</v>
@@ -36576,12 +36576,12 @@
       </c>
       <c r="H109">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>12983.38</v>
+        <v>12983.380000000001</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1080</v>
+        <v>1.08</v>
       </c>
       <c r="B110">
         <v>1767</v>
@@ -36603,12 +36603,12 @@
       </c>
       <c r="H110">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>13104.72</v>
+        <v>13104.720000000001</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1090</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="B111">
         <v>1788</v>
@@ -36630,12 +36630,12 @@
       </c>
       <c r="H111">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>13226.06</v>
+        <v>13226.060000000001</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1100</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B112">
         <v>1809</v>
@@ -36657,12 +36657,12 @@
       </c>
       <c r="H112">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>13347.4</v>
+        <v>13347.400000000001</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1110</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="B113">
         <v>1829</v>
@@ -36684,12 +36684,12 @@
       </c>
       <c r="H113">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>13468.74</v>
+        <v>13468.740000000002</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1120</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="B114">
         <v>1850</v>
@@ -36711,12 +36711,12 @@
       </c>
       <c r="H114">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>13590.08</v>
+        <v>13590.080000000002</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1130</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="B115">
         <v>1870</v>
@@ -36738,12 +36738,12 @@
       </c>
       <c r="H115">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>13711.42</v>
+        <v>13711.419999999998</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1140</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="B116">
         <v>1891</v>
@@ -36765,12 +36765,12 @@
       </c>
       <c r="H116">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>13832.76</v>
+        <v>13832.759999999998</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1150</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="B117">
         <v>1910</v>
@@ -36792,12 +36792,12 @@
       </c>
       <c r="H117">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>13954.1</v>
+        <v>13954.099999999999</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1160</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="B118">
         <v>1931</v>
@@ -36819,12 +36819,12 @@
       </c>
       <c r="H118">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>14075.44</v>
+        <v>14075.439999999999</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1170</v>
+        <v>1.17</v>
       </c>
       <c r="B119">
         <v>1952</v>
@@ -36846,12 +36846,12 @@
       </c>
       <c r="H119">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>14196.78</v>
+        <v>14196.779999999999</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1180</v>
+        <v>1.18</v>
       </c>
       <c r="B120">
         <v>1973</v>
@@ -36873,12 +36873,12 @@
       </c>
       <c r="H120">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>14318.12</v>
+        <v>14318.119999999999</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1190</v>
+        <v>1.19</v>
       </c>
       <c r="B121">
         <v>1992</v>
@@ -36905,7 +36905,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1200</v>
+        <v>1.2</v>
       </c>
       <c r="B122">
         <v>2012</v>
@@ -36932,7 +36932,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1210</v>
+        <v>1.21</v>
       </c>
       <c r="B123">
         <v>2033</v>
@@ -36959,7 +36959,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1220</v>
+        <v>1.22</v>
       </c>
       <c r="B124">
         <v>2055</v>
@@ -36986,7 +36986,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1230</v>
+        <v>1.23</v>
       </c>
       <c r="B125">
         <v>2074</v>
@@ -37013,7 +37013,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1240</v>
+        <v>1.24</v>
       </c>
       <c r="B126">
         <v>2095</v>
@@ -37040,7 +37040,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1250</v>
+        <v>1.25</v>
       </c>
       <c r="B127">
         <v>2116</v>
@@ -37067,7 +37067,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1260</v>
+        <v>1.26</v>
       </c>
       <c r="B128">
         <v>2138</v>
@@ -37094,7 +37094,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1270</v>
+        <v>1.27</v>
       </c>
       <c r="B129">
         <v>2157</v>
@@ -37121,7 +37121,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1280</v>
+        <v>1.28</v>
       </c>
       <c r="B130">
         <v>2178</v>
@@ -37148,7 +37148,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1290</v>
+        <v>1.29</v>
       </c>
       <c r="B131">
         <v>2200</v>
@@ -37175,7 +37175,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="B132">
         <v>2221</v>
@@ -37202,7 +37202,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1310</v>
+        <v>1.31</v>
       </c>
       <c r="B133">
         <v>2242</v>
@@ -37229,7 +37229,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1320</v>
+        <v>1.32</v>
       </c>
       <c r="B134">
         <v>2264</v>
@@ -37251,12 +37251,12 @@
       </c>
       <c r="H134">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>16016.88</v>
+        <v>16016.880000000001</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1330</v>
+        <v>1.33</v>
       </c>
       <c r="B135">
         <v>2285</v>
@@ -37278,12 +37278,12 @@
       </c>
       <c r="H135">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>16138.22</v>
+        <v>16138.220000000001</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1340</v>
+        <v>1.34</v>
       </c>
       <c r="B136">
         <v>2305</v>
@@ -37305,12 +37305,12 @@
       </c>
       <c r="H136">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>16259.56</v>
+        <v>16259.560000000001</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1350</v>
+        <v>1.35</v>
       </c>
       <c r="B137">
         <v>2327</v>
@@ -37332,12 +37332,12 @@
       </c>
       <c r="H137">
         <f>Tabela3[[#This Row],[Time]]*($G$52-$G$152)/($A$52-$A$152)</f>
-        <v>16380.9</v>
+        <v>16380.900000000001</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1360</v>
+        <v>1.36</v>
       </c>
       <c r="B138">
         <v>2348</v>
@@ -37364,7 +37364,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1370</v>
+        <v>1.37</v>
       </c>
       <c r="B139">
         <v>2370</v>
@@ -37391,7 +37391,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1380</v>
+        <v>1.38</v>
       </c>
       <c r="B140">
         <v>2389</v>
@@ -37418,7 +37418,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1390</v>
+        <v>1.39</v>
       </c>
       <c r="B141">
         <v>2411</v>
@@ -37445,7 +37445,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1400</v>
+        <v>1.4</v>
       </c>
       <c r="B142">
         <v>2432</v>
@@ -37472,7 +37472,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1410</v>
+        <v>1.41</v>
       </c>
       <c r="B143">
         <v>2454</v>
@@ -37499,7 +37499,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1420</v>
+        <v>1.42</v>
       </c>
       <c r="B144">
         <v>2474</v>
@@ -37526,7 +37526,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1430</v>
+        <v>1.43</v>
       </c>
       <c r="B145">
         <v>2496</v>
@@ -37553,7 +37553,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1440</v>
+        <v>1.44</v>
       </c>
       <c r="B146">
         <v>2518</v>
@@ -37580,7 +37580,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1450</v>
+        <v>1.45</v>
       </c>
       <c r="B147">
         <v>2539</v>
@@ -37607,7 +37607,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1460</v>
+        <v>1.46</v>
       </c>
       <c r="B148">
         <v>2559</v>
@@ -37634,7 +37634,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1470</v>
+        <v>1.47</v>
       </c>
       <c r="B149">
         <v>2581</v>
@@ -37661,7 +37661,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1480</v>
+        <v>1.48</v>
       </c>
       <c r="B150">
         <v>2603</v>
@@ -37688,7 +37688,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1490</v>
+        <v>1.49</v>
       </c>
       <c r="B151">
         <v>2625</v>
@@ -37715,7 +37715,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="B152">
         <v>2645</v>
@@ -37742,7 +37742,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1510</v>
+        <v>1.51</v>
       </c>
       <c r="B153">
         <v>2667</v>
@@ -37769,7 +37769,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1520</v>
+        <v>1.52</v>
       </c>
       <c r="B154">
         <v>2689</v>
@@ -37796,7 +37796,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1530</v>
+        <v>1.53</v>
       </c>
       <c r="B155">
         <v>2711</v>
@@ -37823,7 +37823,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1540</v>
+        <v>1.54</v>
       </c>
       <c r="B156">
         <v>2730</v>
@@ -37850,7 +37850,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1550</v>
+        <v>1.55</v>
       </c>
       <c r="B157">
         <v>2753</v>
@@ -37877,7 +37877,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1560</v>
+        <v>1.56</v>
       </c>
       <c r="B158">
         <v>2775</v>
@@ -37904,7 +37904,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1570</v>
+        <v>1.57</v>
       </c>
       <c r="B159">
         <v>2797</v>
@@ -37931,7 +37931,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1580</v>
+        <v>1.58</v>
       </c>
       <c r="B160">
         <v>2818</v>
@@ -37958,7 +37958,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1590</v>
+        <v>1.59</v>
       </c>
       <c r="B161">
         <v>2840</v>
@@ -37985,7 +37985,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1600</v>
+        <v>1.6</v>
       </c>
       <c r="B162">
         <v>2862</v>
@@ -38012,7 +38012,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1610</v>
+        <v>1.61</v>
       </c>
       <c r="B163">
         <v>2884</v>
@@ -38039,7 +38039,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>1620</v>
+        <v>1.62</v>
       </c>
       <c r="B164">
         <v>2906</v>
@@ -38066,7 +38066,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1630</v>
+        <v>1.63</v>
       </c>
       <c r="B165">
         <v>2928</v>
@@ -38093,7 +38093,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1640</v>
+        <v>1.64</v>
       </c>
       <c r="B166">
         <v>2951</v>
@@ -38120,7 +38120,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1650</v>
+        <v>1.65</v>
       </c>
       <c r="B167">
         <v>2971</v>
@@ -38147,7 +38147,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1660</v>
+        <v>1.66</v>
       </c>
       <c r="B168">
         <v>2994</v>
@@ -38174,7 +38174,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>1670</v>
+        <v>1.67</v>
       </c>
       <c r="B169">
         <v>3016</v>
@@ -38201,7 +38201,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1680</v>
+        <v>1.68</v>
       </c>
       <c r="B170">
         <v>3038</v>
@@ -38228,7 +38228,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1690</v>
+        <v>1.69</v>
       </c>
       <c r="B171">
         <v>3059</v>
@@ -38255,7 +38255,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>1700</v>
+        <v>1.7</v>
       </c>
       <c r="B172">
         <v>3081</v>
@@ -38282,7 +38282,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1710</v>
+        <v>1.71</v>
       </c>
       <c r="B173">
         <v>3103</v>
@@ -38309,7 +38309,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1720</v>
+        <v>1.72</v>
       </c>
       <c r="B174">
         <v>3126</v>
@@ -38336,7 +38336,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1730</v>
+        <v>1.73</v>
       </c>
       <c r="B175">
         <v>3147</v>
@@ -38363,7 +38363,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>1740</v>
+        <v>1.74</v>
       </c>
       <c r="B176">
         <v>3169</v>
@@ -38390,7 +38390,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>1750</v>
+        <v>1.75</v>
       </c>
       <c r="B177">
         <v>3191</v>
@@ -38417,7 +38417,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>1760</v>
+        <v>1.76</v>
       </c>
       <c r="B178">
         <v>3214</v>
@@ -38444,7 +38444,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>1770</v>
+        <v>1.77</v>
       </c>
       <c r="B179">
         <v>3234</v>
@@ -38471,7 +38471,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>1780</v>
+        <v>1.78</v>
       </c>
       <c r="B180">
         <v>3257</v>
@@ -38498,7 +38498,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>1790</v>
+        <v>1.79</v>
       </c>
       <c r="B181">
         <v>3280</v>
@@ -38525,7 +38525,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>1800</v>
+        <v>1.8</v>
       </c>
       <c r="B182">
         <v>3303</v>
@@ -38552,7 +38552,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>1810</v>
+        <v>1.81</v>
       </c>
       <c r="B183">
         <v>3323</v>
@@ -38579,7 +38579,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>1820</v>
+        <v>1.82</v>
       </c>
       <c r="B184">
         <v>3346</v>
@@ -38606,7 +38606,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>1830</v>
+        <v>1.83</v>
       </c>
       <c r="B185">
         <v>3368</v>
@@ -38633,7 +38633,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>1840</v>
+        <v>1.84</v>
       </c>
       <c r="B186">
         <v>3391</v>
@@ -38660,7 +38660,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>1850</v>
+        <v>1.85</v>
       </c>
       <c r="B187">
         <v>3412</v>
@@ -38687,7 +38687,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>1860</v>
+        <v>1.86</v>
       </c>
       <c r="B188">
         <v>3435</v>
@@ -38714,7 +38714,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>1870</v>
+        <v>1.87</v>
       </c>
       <c r="B189">
         <v>3458</v>
@@ -38741,7 +38741,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>1880</v>
+        <v>1.88</v>
       </c>
       <c r="B190">
         <v>3481</v>
@@ -38768,7 +38768,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>1890</v>
+        <v>1.89</v>
       </c>
       <c r="B191">
         <v>3503</v>
@@ -38795,7 +38795,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>1900</v>
+        <v>1.9</v>
       </c>
       <c r="B192">
         <v>3526</v>
@@ -38822,7 +38822,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>1910</v>
+        <v>1.91</v>
       </c>
       <c r="B193">
         <v>3549</v>
@@ -38849,7 +38849,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>1920</v>
+        <v>1.92</v>
       </c>
       <c r="B194">
         <v>3570</v>
@@ -38876,7 +38876,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>1930</v>
+        <v>1.93</v>
       </c>
       <c r="B195">
         <v>3593</v>
@@ -38903,7 +38903,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>1940</v>
+        <v>1.94</v>
       </c>
       <c r="B196">
         <v>3616</v>
@@ -38930,7 +38930,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>1950</v>
+        <v>1.95</v>
       </c>
       <c r="B197">
         <v>3639</v>
@@ -38957,7 +38957,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>1960</v>
+        <v>1.96</v>
       </c>
       <c r="B198">
         <v>3660</v>
@@ -38984,7 +38984,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>1970</v>
+        <v>1.97</v>
       </c>
       <c r="B199">
         <v>3683</v>
@@ -39011,7 +39011,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>1980</v>
+        <v>1.98</v>
       </c>
       <c r="B200">
         <v>3706</v>
@@ -39038,7 +39038,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>1990</v>
+        <v>1.99</v>
       </c>
       <c r="B201">
         <v>3729</v>
